--- a/src/main/webapp/download/集团客户考核.xlsx
+++ b/src/main/webapp/download/集团客户考核.xlsx
@@ -940,9 +940,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -964,6 +961,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4160,4830 +4160,4830 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M24" sqref="M24"/>
-      <selection pane="bottomLeft" activeCell="J70" sqref="J70"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="8" customWidth="1"/>
-    <col min="4" max="5" width="11.375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="10.875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="7" customWidth="1"/>
+    <col min="4" max="5" width="11.375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="41.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="2" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="e">
+      <c r="C3" s="4" t="e">
         <f>VLOOKUP(B3,[1]底薪计算!D:I,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6" t="e">
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5" t="e">
         <f t="shared" ref="F3:F28" si="0">IF(AND(D3="直销",C3="Y"),1,IF(AND(D3="一体化",E3&lt;&gt;" "),0,IF(AND(D3="一体化",EC2903="Y"),1,0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B3,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="2" t="e">
+      <c r="H3" s="6"/>
+      <c r="I3" s="1" t="e">
         <f>VLOOKUP(B3,[1]底薪计算!D:D,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="4" t="str">
         <f>VLOOKUP(B4,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B4,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="2" t="str">
+      <c r="H4" s="6"/>
+      <c r="I4" s="1" t="str">
         <f>VLOOKUP(B4,[1]底薪计算!D:D,1,FALSE)</f>
         <v>覃绪炽</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="e">
+      <c r="C5" s="4" t="e">
         <f>VLOOKUP(B5,[1]底薪计算!D:I,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6" t="e">
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B5,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="2" t="e">
+      <c r="H5" s="6"/>
+      <c r="I5" s="1" t="e">
         <f>VLOOKUP(B5,[1]底薪计算!D:D,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="str">
+      <c r="C6" s="4" t="str">
         <f>VLOOKUP(B6,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B6,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="2" t="str">
+      <c r="H6" s="6"/>
+      <c r="I6" s="1" t="str">
         <f>VLOOKUP(B6,[1]底薪计算!D:D,1,FALSE)</f>
         <v>邓轩腾</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="str">
+      <c r="C7" s="4" t="str">
         <f>VLOOKUP(B7,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B7,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="2" t="str">
+      <c r="H7" s="6"/>
+      <c r="I7" s="1" t="str">
         <f>VLOOKUP(B7,[1]底薪计算!D:D,1,FALSE)</f>
         <v>邓轩物</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5" t="str">
+      <c r="C8" s="4" t="str">
         <f>VLOOKUP(B8,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B8,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="2" t="str">
+      <c r="H8" s="6"/>
+      <c r="I8" s="1" t="str">
         <f>VLOOKUP(B8,[1]底薪计算!D:D,1,FALSE)</f>
         <v>符关卓</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5" t="str">
+      <c r="C9" s="4" t="str">
         <f>VLOOKUP(B9,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B9,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="2" t="str">
+      <c r="H9" s="6"/>
+      <c r="I9" s="1" t="str">
         <f>VLOOKUP(B9,[1]底薪计算!D:D,1,FALSE)</f>
         <v>刘运超</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5" t="str">
+      <c r="C10" s="4" t="str">
         <f>VLOOKUP(B10,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B10,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="2" t="str">
+      <c r="H10" s="6"/>
+      <c r="I10" s="1" t="str">
         <f>VLOOKUP(B10,[1]底薪计算!D:D,1,FALSE)</f>
         <v>全守平</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="5" t="str">
+      <c r="C11" s="4" t="str">
         <f>VLOOKUP(B11,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B11,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="2" t="str">
+      <c r="H11" s="6"/>
+      <c r="I11" s="1" t="str">
         <f>VLOOKUP(B11,[1]底薪计算!D:D,1,FALSE)</f>
         <v>唐石荣</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5" t="str">
+      <c r="C12" s="4" t="str">
         <f>VLOOKUP(B12,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B12,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="2" t="str">
+      <c r="H12" s="6"/>
+      <c r="I12" s="1" t="str">
         <f>VLOOKUP(B12,[1]底薪计算!D:D,1,FALSE)</f>
         <v>李永林</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5" t="str">
+      <c r="C13" s="4" t="str">
         <f>VLOOKUP(B13,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B13,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="2" t="str">
+      <c r="H13" s="6"/>
+      <c r="I13" s="1" t="str">
         <f>VLOOKUP(B13,[1]底薪计算!D:D,1,FALSE)</f>
         <v>伍宜勇</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="5" t="str">
+      <c r="C14" s="4" t="str">
         <f>VLOOKUP(B14,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B14,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="2" t="str">
+      <c r="H14" s="6"/>
+      <c r="I14" s="1" t="str">
         <f>VLOOKUP(B14,[1]底薪计算!D:D,1,FALSE)</f>
         <v>刘建强</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="5" t="str">
+      <c r="C15" s="4" t="str">
         <f>VLOOKUP(B15,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B15,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="2" t="str">
+      <c r="H15" s="6"/>
+      <c r="I15" s="1" t="str">
         <f>VLOOKUP(B15,[1]底薪计算!D:D,1,FALSE)</f>
         <v>蓝志坚</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="5" t="str">
+      <c r="C16" s="4" t="str">
         <f>VLOOKUP(B16,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B16,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="2" t="str">
+      <c r="H16" s="6"/>
+      <c r="I16" s="1" t="str">
         <f>VLOOKUP(B16,[1]底薪计算!D:D,1,FALSE)</f>
         <v>蓝志康</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="5" t="e">
+      <c r="C17" s="4" t="e">
         <f>VLOOKUP(B17,[1]底薪计算!D:I,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6" t="e">
+      <c r="D17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B17,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="2" t="e">
+      <c r="H17" s="6"/>
+      <c r="I17" s="1" t="e">
         <f>VLOOKUP(B17,[1]底薪计算!D:D,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="5" t="str">
+      <c r="C18" s="4" t="str">
         <f>VLOOKUP(B18,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B18,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="2" t="str">
+      <c r="H18" s="6"/>
+      <c r="I18" s="1" t="str">
         <f>VLOOKUP(B18,[1]底薪计算!D:D,1,FALSE)</f>
         <v>欧仁</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="5" t="str">
+      <c r="C19" s="4" t="str">
         <f>VLOOKUP(B19,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B19,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="2" t="str">
+      <c r="H19" s="6"/>
+      <c r="I19" s="1" t="str">
         <f>VLOOKUP(B19,[1]底薪计算!D:D,1,FALSE)</f>
         <v>杨维邦</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="5" t="str">
+      <c r="C20" s="4" t="str">
         <f>VLOOKUP(B20,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B20,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="2" t="str">
+      <c r="H20" s="6"/>
+      <c r="I20" s="1" t="str">
         <f>VLOOKUP(B20,[1]底薪计算!D:D,1,FALSE)</f>
         <v>周国强</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="5" t="str">
+      <c r="C21" s="4" t="str">
         <f>VLOOKUP(B21,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B21,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="2" t="str">
+      <c r="H21" s="6"/>
+      <c r="I21" s="1" t="str">
         <f>VLOOKUP(B21,[1]底薪计算!D:D,1,FALSE)</f>
         <v>左小兵</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5" t="str">
+      <c r="C22" s="4" t="str">
         <f>VLOOKUP(B22,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="D22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B22,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="2" t="str">
+      <c r="H22" s="6"/>
+      <c r="I22" s="1" t="str">
         <f>VLOOKUP(B22,[1]底薪计算!D:D,1,FALSE)</f>
         <v>邓逢善</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="5" t="str">
+      <c r="C23" s="4" t="str">
         <f>VLOOKUP(B23,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="D23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B23,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="2" t="str">
+      <c r="H23" s="6"/>
+      <c r="I23" s="1" t="str">
         <f>VLOOKUP(B23,[1]底薪计算!D:D,1,FALSE)</f>
         <v>黎广法</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="5" t="str">
+      <c r="C24" s="4" t="str">
         <f>VLOOKUP(B24,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="D24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B24,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="2" t="str">
+      <c r="H24" s="6"/>
+      <c r="I24" s="1" t="str">
         <f>VLOOKUP(B24,[1]底薪计算!D:D,1,FALSE)</f>
         <v>肖任</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="5" t="str">
+      <c r="C25" s="4" t="str">
         <f>VLOOKUP(B25,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="D25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B25,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="2" t="str">
+      <c r="H25" s="6"/>
+      <c r="I25" s="1" t="str">
         <f>VLOOKUP(B25,[1]底薪计算!D:D,1,FALSE)</f>
         <v>曾茂林</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="5" t="str">
+      <c r="C26" s="4" t="str">
         <f>VLOOKUP(B26,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="D26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B26,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="2" t="str">
+      <c r="H26" s="6"/>
+      <c r="I26" s="1" t="str">
         <f>VLOOKUP(B26,[1]底薪计算!D:D,1,FALSE)</f>
         <v>温圣荣</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="5" t="str">
+      <c r="C27" s="4" t="str">
         <f>VLOOKUP(B27,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="D27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B27,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="2" t="str">
+      <c r="H27" s="6"/>
+      <c r="I27" s="1" t="str">
         <f>VLOOKUP(B27,[1]底薪计算!D:D,1,FALSE)</f>
         <v>易荣辉</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="5" t="str">
+      <c r="C28" s="4" t="str">
         <f>VLOOKUP(B28,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="D28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B28,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="2" t="str">
+      <c r="H28" s="6"/>
+      <c r="I28" s="1" t="str">
         <f>VLOOKUP(B28,[1]底薪计算!D:D,1,FALSE)</f>
         <v>罗灿平</v>
       </c>
     </row>
     <row r="29" spans="1:9" hidden="1">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="5" t="str">
+      <c r="C29" s="4" t="str">
         <f>VLOOKUP(B29,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <f>IF(AND(D29="直销",C29="Y"),1,IF(AND(D29="一体化",E29&lt;&gt;" "),0,IF(AND(D29="一体化",EC2929="Y"),1,0)))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B29,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="6">
         <f t="shared" ref="H29:H67" si="1">IF(AND(C29="Y",G29&lt;F29),-100,0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="2" t="str">
+      <c r="I29" s="1" t="str">
         <f>VLOOKUP(B29,[1]底薪计算!D:D,1,FALSE)</f>
         <v>罗灿坤</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="5" t="e">
+      <c r="C30" s="4" t="e">
         <f>VLOOKUP(B30,[1]底薪计算!D:I,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6" t="e">
+      <c r="D30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5" t="e">
         <f t="shared" ref="F30:F93" si="2">IF(AND(D30="直销",C30="Y"),1,IF(AND(D30="一体化",E30&lt;&gt;" "),0,IF(AND(D30="一体化",EC2930="Y"),1,0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B30,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="2" t="e">
+      <c r="H30" s="6"/>
+      <c r="I30" s="1" t="e">
         <f>VLOOKUP(B30,[1]底薪计算!D:D,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="5" t="str">
+      <c r="C31" s="4" t="str">
         <f>VLOOKUP(B31,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="D31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B31,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="2" t="str">
+      <c r="H31" s="6"/>
+      <c r="I31" s="1" t="str">
         <f>VLOOKUP(B31,[1]底薪计算!D:D,1,FALSE)</f>
         <v>郑廷碧</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="5" t="str">
+      <c r="C32" s="4" t="str">
         <f>VLOOKUP(B32,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="D32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B32,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="2" t="str">
+      <c r="H32" s="6"/>
+      <c r="I32" s="1" t="str">
         <f>VLOOKUP(B32,[1]底薪计算!D:D,1,FALSE)</f>
         <v>黄维劲</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="5" t="str">
+      <c r="C33" s="4" t="str">
         <f>VLOOKUP(B33,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="5" t="s">
+      <c r="D33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B33,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="2" t="str">
+      <c r="H33" s="6"/>
+      <c r="I33" s="1" t="str">
         <f>VLOOKUP(B33,[1]底薪计算!D:D,1,FALSE)</f>
         <v>李宇飞</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="5" t="str">
+      <c r="C34" s="4" t="str">
         <f>VLOOKUP(B34,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="D34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B34,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="2" t="str">
+      <c r="H34" s="6"/>
+      <c r="I34" s="1" t="str">
         <f>VLOOKUP(B34,[1]底薪计算!D:D,1,FALSE)</f>
         <v>钟宝明</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="5" t="str">
+      <c r="C35" s="4" t="str">
         <f>VLOOKUP(B35,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="D35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B35,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="2" t="str">
+      <c r="H35" s="6"/>
+      <c r="I35" s="1" t="str">
         <f>VLOOKUP(B35,[1]底薪计算!D:D,1,FALSE)</f>
         <v>黎广俊</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="5" t="str">
+      <c r="C36" s="4" t="str">
         <f>VLOOKUP(B36,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="5" t="s">
+      <c r="D36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B36,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="2" t="str">
+      <c r="H36" s="6"/>
+      <c r="I36" s="1" t="str">
         <f>VLOOKUP(B36,[1]底薪计算!D:D,1,FALSE)</f>
         <v>何奇宝</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="5" t="str">
+      <c r="C37" s="4" t="str">
         <f>VLOOKUP(B37,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="5" t="s">
+      <c r="D37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B37,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="2" t="str">
+      <c r="H37" s="6"/>
+      <c r="I37" s="1" t="str">
         <f>VLOOKUP(B37,[1]底薪计算!D:D,1,FALSE)</f>
         <v>吴宇帅</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="5" t="str">
+      <c r="C38" s="4" t="str">
         <f>VLOOKUP(B38,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="5" t="s">
+      <c r="D38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B38,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="2" t="str">
+      <c r="H38" s="6"/>
+      <c r="I38" s="1" t="str">
         <f>VLOOKUP(B38,[1]底薪计算!D:D,1,FALSE)</f>
         <v>禹红娜</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="5" t="str">
+      <c r="C39" s="4" t="str">
         <f>VLOOKUP(B39,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="5" t="s">
+      <c r="D39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B39,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="2" t="str">
+      <c r="H39" s="6"/>
+      <c r="I39" s="1" t="str">
         <f>VLOOKUP(B39,[1]底薪计算!D:D,1,FALSE)</f>
         <v>张国舜</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="5" t="str">
+      <c r="C40" s="4" t="str">
         <f>VLOOKUP(B40,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="5" t="s">
+      <c r="D40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B40,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="2" t="str">
+      <c r="H40" s="6"/>
+      <c r="I40" s="1" t="str">
         <f>VLOOKUP(B40,[1]底薪计算!D:D,1,FALSE)</f>
         <v>李先富</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="5" t="e">
+      <c r="C41" s="4" t="e">
         <f>VLOOKUP(B41,[1]底薪计算!D:I,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="6" t="e">
+      <c r="D41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B41,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="2" t="e">
+      <c r="H41" s="6"/>
+      <c r="I41" s="1" t="e">
         <f>VLOOKUP(B41,[1]底薪计算!D:D,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="5" t="str">
+      <c r="C42" s="4" t="str">
         <f>VLOOKUP(B42,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="5" t="s">
+      <c r="D42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B42,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="2" t="str">
+      <c r="H42" s="6"/>
+      <c r="I42" s="1" t="str">
         <f>VLOOKUP(B42,[1]底薪计算!D:D,1,FALSE)</f>
         <v>黄维敏</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="5" t="str">
+      <c r="C43" s="4" t="str">
         <f>VLOOKUP(B43,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="5" t="s">
+      <c r="D43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B43,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="2" t="str">
+      <c r="H43" s="6"/>
+      <c r="I43" s="1" t="str">
         <f>VLOOKUP(B43,[1]底薪计算!D:D,1,FALSE)</f>
         <v>夏玉杰</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="5" t="str">
+      <c r="C44" s="4" t="str">
         <f>VLOOKUP(B44,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="5" t="s">
+      <c r="D44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B44,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="2" t="str">
+      <c r="H44" s="6"/>
+      <c r="I44" s="1" t="str">
         <f>VLOOKUP(B44,[1]底薪计算!D:D,1,FALSE)</f>
         <v>陈阳</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="5" t="str">
+      <c r="C45" s="4" t="str">
         <f>VLOOKUP(B45,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="5" t="s">
+      <c r="D45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B45,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="2" t="str">
+      <c r="H45" s="6"/>
+      <c r="I45" s="1" t="str">
         <f>VLOOKUP(B45,[1]底薪计算!D:D,1,FALSE)</f>
         <v>何攀</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="5" t="str">
+      <c r="C46" s="4" t="str">
         <f>VLOOKUP(B46,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="5" t="s">
+      <c r="D46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B46,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H46" s="7"/>
-      <c r="I46" s="2" t="str">
+      <c r="H46" s="6"/>
+      <c r="I46" s="1" t="str">
         <f>VLOOKUP(B46,[1]底薪计算!D:D,1,FALSE)</f>
         <v>杨芳</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="5" t="str">
+      <c r="C47" s="4" t="str">
         <f>VLOOKUP(B47,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="5" t="s">
+      <c r="D47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B47,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="2" t="str">
+      <c r="H47" s="6"/>
+      <c r="I47" s="1" t="str">
         <f>VLOOKUP(B47,[1]底薪计算!D:D,1,FALSE)</f>
         <v>陈炳亮</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="5" t="str">
+      <c r="C48" s="4" t="str">
         <f>VLOOKUP(B48,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="5" t="s">
+      <c r="D48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B48,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H48" s="7"/>
-      <c r="I48" s="2" t="str">
+      <c r="H48" s="6"/>
+      <c r="I48" s="1" t="str">
         <f>VLOOKUP(B48,[1]底薪计算!D:D,1,FALSE)</f>
         <v>张远威</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="5" t="str">
+      <c r="C49" s="4" t="str">
         <f>VLOOKUP(B49,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="5" t="s">
+      <c r="D49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B49,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="2" t="str">
+      <c r="H49" s="6"/>
+      <c r="I49" s="1" t="str">
         <f>VLOOKUP(B49,[1]底薪计算!D:D,1,FALSE)</f>
         <v>李明浪</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="5" t="str">
+      <c r="C50" s="4" t="str">
         <f>VLOOKUP(B50,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="5" t="s">
+      <c r="D50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B50,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="7"/>
-      <c r="I50" s="2" t="str">
+      <c r="H50" s="6"/>
+      <c r="I50" s="1" t="str">
         <f>VLOOKUP(B50,[1]底薪计算!D:D,1,FALSE)</f>
         <v>肖俊标</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="5" t="e">
+      <c r="C51" s="4" t="e">
         <f>VLOOKUP(B51,[1]底薪计算!D:I,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="6" t="e">
+      <c r="D51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B51,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H51" s="7"/>
-      <c r="I51" s="2" t="e">
+      <c r="H51" s="6"/>
+      <c r="I51" s="1" t="e">
         <f>VLOOKUP(B51,[1]底薪计算!D:D,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="5" t="str">
+      <c r="C52" s="4" t="str">
         <f>VLOOKUP(B52,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="6">
+      <c r="D52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B52,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="2" t="str">
+      <c r="H52" s="6"/>
+      <c r="I52" s="1" t="str">
         <f>VLOOKUP(B52,[1]底薪计算!D:D,1,FALSE)</f>
         <v>邹阳</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="5" t="str">
+      <c r="C53" s="4" t="str">
         <f>VLOOKUP(B53,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="5" t="s">
+      <c r="D53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B53,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="7"/>
-      <c r="I53" s="2" t="str">
+      <c r="H53" s="6"/>
+      <c r="I53" s="1" t="str">
         <f>VLOOKUP(B53,[1]底薪计算!D:D,1,FALSE)</f>
         <v>林建光</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="5" t="str">
+      <c r="C54" s="4" t="str">
         <f>VLOOKUP(B54,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="5" t="s">
+      <c r="D54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B54,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H54" s="7"/>
-      <c r="I54" s="2" t="str">
+      <c r="H54" s="6"/>
+      <c r="I54" s="1" t="str">
         <f>VLOOKUP(B54,[1]底薪计算!D:D,1,FALSE)</f>
         <v>钟环荣</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="5" t="str">
+      <c r="C55" s="4" t="str">
         <f>VLOOKUP(B55,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="5" t="s">
+      <c r="D55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B55,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H55" s="7"/>
-      <c r="I55" s="2" t="str">
+      <c r="H55" s="6"/>
+      <c r="I55" s="1" t="str">
         <f>VLOOKUP(B55,[1]底薪计算!D:D,1,FALSE)</f>
         <v>周启存</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="5" t="str">
+      <c r="C56" s="4" t="str">
         <f>VLOOKUP(B56,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="5" t="s">
+      <c r="D56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B56,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H56" s="7"/>
-      <c r="I56" s="2" t="str">
+      <c r="H56" s="6"/>
+      <c r="I56" s="1" t="str">
         <f>VLOOKUP(B56,[1]底薪计算!D:D,1,FALSE)</f>
         <v>万昌波</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="5" t="str">
+      <c r="C57" s="4" t="str">
         <f>VLOOKUP(B57,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="5" t="s">
+      <c r="D57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B57,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H57" s="7"/>
-      <c r="I57" s="2" t="str">
+      <c r="H57" s="6"/>
+      <c r="I57" s="1" t="str">
         <f>VLOOKUP(B57,[1]底薪计算!D:D,1,FALSE)</f>
         <v>伍红军</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="5" t="str">
+      <c r="C58" s="4" t="str">
         <f>VLOOKUP(B58,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="5" t="s">
+      <c r="D58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B58,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H58" s="7"/>
-      <c r="I58" s="2" t="str">
+      <c r="H58" s="6"/>
+      <c r="I58" s="1" t="str">
         <f>VLOOKUP(B58,[1]底薪计算!D:D,1,FALSE)</f>
         <v>何乐平</v>
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="5" t="str">
+      <c r="C59" s="4" t="str">
         <f>VLOOKUP(B59,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="5" t="s">
+      <c r="D59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B59,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H59" s="7"/>
-      <c r="I59" s="2" t="str">
+      <c r="H59" s="6"/>
+      <c r="I59" s="1" t="str">
         <f>VLOOKUP(B59,[1]底薪计算!D:D,1,FALSE)</f>
         <v>肖亮</v>
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="5" t="str">
+      <c r="C60" s="4" t="str">
         <f>VLOOKUP(B60,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="5" t="s">
+      <c r="D60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B60,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H60" s="7"/>
-      <c r="I60" s="2" t="str">
+      <c r="H60" s="6"/>
+      <c r="I60" s="1" t="str">
         <f>VLOOKUP(B60,[1]底薪计算!D:D,1,FALSE)</f>
         <v>许世家</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="5" t="str">
+      <c r="C61" s="4" t="str">
         <f>VLOOKUP(B61,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="5" t="s">
+      <c r="D61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B61,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="2" t="str">
+      <c r="H61" s="6"/>
+      <c r="I61" s="1" t="str">
         <f>VLOOKUP(B61,[1]底薪计算!D:D,1,FALSE)</f>
         <v>朱江益</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="5" t="e">
+      <c r="C62" s="4" t="e">
         <f>VLOOKUP(B62,[1]底薪计算!D:I,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="6" t="e">
+      <c r="D62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B62,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H62" s="7"/>
-      <c r="I62" s="2" t="e">
+      <c r="H62" s="6"/>
+      <c r="I62" s="1" t="e">
         <f>VLOOKUP(B62,[1]底薪计算!D:D,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C63" s="5" t="str">
+      <c r="C63" s="4" t="str">
         <f>VLOOKUP(B63,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="5" t="s">
+      <c r="D63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B63,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H63" s="7"/>
-      <c r="I63" s="2" t="str">
+      <c r="H63" s="6"/>
+      <c r="I63" s="1" t="str">
         <f>VLOOKUP(B63,[1]底薪计算!D:D,1,FALSE)</f>
         <v>韦志强</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="5" t="str">
+      <c r="C64" s="4" t="str">
         <f>VLOOKUP(B64,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="5" t="s">
+      <c r="D64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B64,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H64" s="7"/>
-      <c r="I64" s="2" t="str">
+      <c r="H64" s="6"/>
+      <c r="I64" s="1" t="str">
         <f>VLOOKUP(B64,[1]底薪计算!D:D,1,FALSE)</f>
         <v>文志立</v>
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C65" s="5" t="str">
+      <c r="C65" s="4" t="str">
         <f>VLOOKUP(B65,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="5" t="s">
+      <c r="D65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G65" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B65,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="7"/>
-      <c r="I65" s="2" t="str">
+      <c r="H65" s="6"/>
+      <c r="I65" s="1" t="str">
         <f>VLOOKUP(B65,[1]底薪计算!D:D,1,FALSE)</f>
         <v>胡政</v>
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="5" t="str">
+      <c r="C66" s="4" t="str">
         <f>VLOOKUP(B66,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="5" t="s">
+      <c r="D66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G66" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B66,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H66" s="7"/>
-      <c r="I66" s="2" t="str">
+      <c r="H66" s="6"/>
+      <c r="I66" s="1" t="str">
         <f>VLOOKUP(B66,[1]底薪计算!D:D,1,FALSE)</f>
         <v>杨菊花</v>
       </c>
     </row>
     <row r="67" spans="1:9" hidden="1">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="5" t="str">
+      <c r="C67" s="4" t="str">
         <f>VLOOKUP(B67,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G67" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B67,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H67" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I67" s="2" t="str">
+      <c r="I67" s="1" t="str">
         <f>VLOOKUP(B67,[1]底薪计算!D:D,1,FALSE)</f>
         <v>邹耀廷</v>
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="5" t="str">
+      <c r="C68" s="4" t="str">
         <f>VLOOKUP(B68,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="5"/>
-      <c r="F68" s="6">
+      <c r="D68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G68" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B68,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H68" s="7"/>
-      <c r="I68" s="2" t="str">
+      <c r="H68" s="6"/>
+      <c r="I68" s="1" t="str">
         <f>VLOOKUP(B68,[1]底薪计算!D:D,1,FALSE)</f>
         <v>李小兵</v>
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C69" s="5" t="e">
+      <c r="C69" s="4" t="e">
         <f>VLOOKUP(B69,[1]底薪计算!D:I,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="5"/>
-      <c r="F69" s="6" t="e">
+      <c r="D69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G69" s="6">
+      <c r="G69" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B69,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H69" s="7"/>
-      <c r="I69" s="2" t="e">
+      <c r="H69" s="6"/>
+      <c r="I69" s="1" t="e">
         <f>VLOOKUP(B69,[1]底薪计算!D:D,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C70" s="5" t="str">
+      <c r="C70" s="4" t="str">
         <f>VLOOKUP(B70,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="5"/>
-      <c r="F70" s="6">
+      <c r="D70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G70" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B70,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H70" s="7"/>
-      <c r="I70" s="2" t="str">
+      <c r="H70" s="6"/>
+      <c r="I70" s="1" t="str">
         <f>VLOOKUP(B70,[1]底薪计算!D:D,1,FALSE)</f>
         <v>程海健</v>
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="4">
         <f>VLOOKUP(B71,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="5"/>
-      <c r="F71" s="6">
+      <c r="D71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G71" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B71,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H71" s="7"/>
-      <c r="I71" s="2" t="str">
+      <c r="H71" s="6"/>
+      <c r="I71" s="1" t="str">
         <f>VLOOKUP(B71,[1]底薪计算!D:D,1,FALSE)</f>
         <v>夏永杰</v>
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C72" s="5" t="str">
+      <c r="C72" s="4" t="str">
         <f>VLOOKUP(B72,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="5" t="s">
+      <c r="D72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F72" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G72" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B72,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H72" s="7"/>
-      <c r="I72" s="2" t="str">
+      <c r="H72" s="6"/>
+      <c r="I72" s="1" t="str">
         <f>VLOOKUP(B72,[1]底薪计算!D:D,1,FALSE)</f>
         <v>陈常利</v>
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C73" s="5" t="e">
+      <c r="C73" s="4" t="e">
         <f>VLOOKUP(B73,[1]底薪计算!D:I,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="6" t="e">
+      <c r="D73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G73" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B73,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H73" s="7"/>
-      <c r="I73" s="2" t="e">
+      <c r="H73" s="6"/>
+      <c r="I73" s="1" t="e">
         <f>VLOOKUP(B73,[1]底薪计算!D:D,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C74" s="5" t="e">
+      <c r="C74" s="4" t="e">
         <f>VLOOKUP(B74,[1]底薪计算!D:I,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="5"/>
-      <c r="F74" s="6" t="e">
+      <c r="D74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G74" s="6">
+      <c r="G74" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B74,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H74" s="7"/>
-      <c r="I74" s="2" t="e">
+      <c r="H74" s="6"/>
+      <c r="I74" s="1" t="e">
         <f>VLOOKUP(B74,[1]底薪计算!D:D,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C75" s="5" t="str">
+      <c r="C75" s="4" t="str">
         <f>VLOOKUP(B75,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="5"/>
-      <c r="F75" s="6">
+      <c r="D75" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G75" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B75,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H75" s="7"/>
-      <c r="I75" s="2" t="str">
+      <c r="H75" s="6"/>
+      <c r="I75" s="1" t="str">
         <f>VLOOKUP(B75,[1]底薪计算!D:D,1,FALSE)</f>
         <v>杨辉</v>
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C76" s="5" t="e">
+      <c r="C76" s="4" t="e">
         <f>VLOOKUP(B76,[1]底薪计算!D:I,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="6" t="e">
+      <c r="D76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="5" t="e">
         <f>IF(AND(D76="直销",C76="Y"),1,IF(AND(D76="一体化",E76&lt;&gt;" "),0,IF(AND(D76="一体化",EC2976="Y"),1,0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G76" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B76,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H76" s="7"/>
-      <c r="I76" s="2" t="e">
+      <c r="H76" s="6"/>
+      <c r="I76" s="1" t="e">
         <f>VLOOKUP(B76,[1]底薪计算!D:D,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="4">
         <f>VLOOKUP(B77,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="5"/>
-      <c r="F77" s="6">
+      <c r="D77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G77" s="6">
+      <c r="G77" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B77,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H77" s="7"/>
-      <c r="I77" s="2" t="str">
+      <c r="H77" s="6"/>
+      <c r="I77" s="1" t="str">
         <f>VLOOKUP(B77,[1]底薪计算!D:D,1,FALSE)</f>
         <v>彭知群</v>
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C78" s="5" t="e">
+      <c r="C78" s="4" t="e">
         <f>VLOOKUP(B78,[1]底薪计算!D:I,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="6" t="e">
+      <c r="D78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G78" s="6">
+      <c r="G78" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B78,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H78" s="7"/>
-      <c r="I78" s="2" t="e">
+      <c r="H78" s="6"/>
+      <c r="I78" s="1" t="e">
         <f>VLOOKUP(B78,[1]底薪计算!D:D,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C79" s="5" t="str">
+      <c r="C79" s="4" t="str">
         <f>VLOOKUP(B79,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" s="5"/>
-      <c r="F79" s="6">
+      <c r="D79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G79" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B79,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H79" s="7"/>
-      <c r="I79" s="2" t="str">
+      <c r="H79" s="6"/>
+      <c r="I79" s="1" t="str">
         <f>VLOOKUP(B79,[1]底薪计算!D:D,1,FALSE)</f>
         <v>徐元球</v>
       </c>
     </row>
     <row r="80" spans="1:9" hidden="1">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C80" s="5" t="e">
+      <c r="C80" s="4" t="e">
         <f>VLOOKUP(B80,[1]底薪计算!D:I,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E80" s="5"/>
-      <c r="F80" s="6" t="e">
+      <c r="E80" s="4"/>
+      <c r="F80" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G80" s="6">
+      <c r="G80" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B80,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H80" s="7" t="e">
+      <c r="H80" s="6" t="e">
         <f t="shared" ref="H80:H129" si="3">IF(AND(C80="Y",G80&lt;F80),-100,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I80" s="2" t="e">
+      <c r="I80" s="1" t="e">
         <f>VLOOKUP(B80,[1]底薪计算!D:D,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C81" s="5" t="str">
+      <c r="C81" s="4" t="str">
         <f>VLOOKUP(B81,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" s="5" t="s">
+      <c r="D81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F81" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G81" s="6">
+      <c r="G81" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B81,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H81" s="7"/>
-      <c r="I81" s="2" t="str">
+      <c r="H81" s="6"/>
+      <c r="I81" s="1" t="str">
         <f>VLOOKUP(B81,[1]底薪计算!D:D,1,FALSE)</f>
         <v>祖静彪</v>
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C82" s="5" t="str">
+      <c r="C82" s="4" t="str">
         <f>VLOOKUP(B82,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" s="5"/>
-      <c r="F82" s="6">
+      <c r="D82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="4"/>
+      <c r="F82" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G82" s="6">
+      <c r="G82" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B82,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H82" s="7"/>
-      <c r="I82" s="2" t="str">
+      <c r="H82" s="6"/>
+      <c r="I82" s="1" t="str">
         <f>VLOOKUP(B82,[1]底薪计算!D:D,1,FALSE)</f>
         <v>彭文群</v>
       </c>
     </row>
     <row r="83" spans="1:9" hidden="1">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C83" s="5" t="str">
+      <c r="C83" s="4" t="str">
         <f>VLOOKUP(B83,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E83" s="5"/>
-      <c r="F83" s="6">
+      <c r="E83" s="4"/>
+      <c r="F83" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G83" s="6">
+      <c r="G83" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B83,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H83" s="7">
+      <c r="H83" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I83" s="2" t="str">
+      <c r="I83" s="1" t="str">
         <f>VLOOKUP(B83,[1]底薪计算!D:D,1,FALSE)</f>
         <v>杨晓艳</v>
       </c>
     </row>
     <row r="84" spans="1:9" hidden="1">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C84" s="5" t="str">
+      <c r="C84" s="4" t="str">
         <f>VLOOKUP(B84,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E84" s="5"/>
-      <c r="F84" s="6">
+      <c r="E84" s="4"/>
+      <c r="F84" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G84" s="6">
+      <c r="G84" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B84,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H84" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I84" s="2" t="str">
+      <c r="I84" s="1" t="str">
         <f>VLOOKUP(B84,[1]底薪计算!D:D,1,FALSE)</f>
         <v>钟小红</v>
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="5" t="str">
+      <c r="C85" s="4" t="str">
         <f>VLOOKUP(B85,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" s="5" t="s">
+      <c r="D85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F85" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G85" s="6">
+      <c r="G85" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B85,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H85" s="7"/>
-      <c r="I85" s="2" t="str">
+      <c r="H85" s="6"/>
+      <c r="I85" s="1" t="str">
         <f>VLOOKUP(B85,[1]底薪计算!D:D,1,FALSE)</f>
         <v>黄智乾</v>
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="4">
         <f>VLOOKUP(B86,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" s="5"/>
-      <c r="F86" s="6">
+      <c r="D86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="5">
         <f>IF(AND(D86="直销",C86="Y"),1,IF(AND(D86="一体化",E86&lt;&gt;" "),0,IF(AND(D86="一体化",EC2986="Y"),1,0)))</f>
         <v>0</v>
       </c>
-      <c r="G86" s="6">
+      <c r="G86" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B86,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H86" s="7"/>
-      <c r="I86" s="2" t="str">
+      <c r="H86" s="6"/>
+      <c r="I86" s="1" t="str">
         <f>VLOOKUP(B86,[1]底薪计算!D:D,1,FALSE)</f>
         <v>农军成</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="4">
         <f>VLOOKUP(B87,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" s="5"/>
-      <c r="F87" s="6">
+      <c r="D87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="4"/>
+      <c r="F87" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G87" s="6">
+      <c r="G87" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B87,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H87" s="7"/>
-      <c r="I87" s="2" t="str">
+      <c r="H87" s="6"/>
+      <c r="I87" s="1" t="str">
         <f>VLOOKUP(B87,[1]底薪计算!D:D,1,FALSE)</f>
         <v>肖忠</v>
       </c>
     </row>
     <row r="88" spans="1:9" hidden="1">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C88" s="5" t="e">
+      <c r="C88" s="4" t="e">
         <f>VLOOKUP(B88,[1]底薪计算!D:I,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E88" s="5"/>
-      <c r="F88" s="6" t="e">
+      <c r="E88" s="4"/>
+      <c r="F88" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G88" s="6">
+      <c r="G88" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B88,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H88" s="7" t="e">
+      <c r="H88" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="I88" s="2" t="e">
+      <c r="I88" s="1" t="e">
         <f>VLOOKUP(B88,[1]底薪计算!D:D,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="1:9" hidden="1">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C89" s="5" t="str">
+      <c r="C89" s="4" t="str">
         <f>VLOOKUP(B89,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E89" s="5"/>
-      <c r="F89" s="6">
+      <c r="E89" s="4"/>
+      <c r="F89" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G89" s="6">
+      <c r="G89" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B89,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H89" s="7">
+      <c r="H89" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I89" s="2" t="str">
+      <c r="I89" s="1" t="str">
         <f>VLOOKUP(B89,[1]底薪计算!D:D,1,FALSE)</f>
         <v>白莉</v>
       </c>
     </row>
     <row r="90" spans="1:9" hidden="1">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C90" s="5" t="str">
+      <c r="C90" s="4" t="str">
         <f>VLOOKUP(B90,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E90" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F90" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G90" s="6">
+      <c r="G90" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B90,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H90" s="7">
+      <c r="H90" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I90" s="2" t="str">
+      <c r="I90" s="1" t="str">
         <f>VLOOKUP(B90,[1]底薪计算!D:D,1,FALSE)</f>
         <v>陈伟娣</v>
       </c>
     </row>
     <row r="91" spans="1:9" hidden="1">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C91" s="5" t="str">
+      <c r="C91" s="4" t="str">
         <f>VLOOKUP(B91,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E91" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F91" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G91" s="6">
+      <c r="G91" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B91,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H91" s="7">
+      <c r="H91" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I91" s="2" t="str">
+      <c r="I91" s="1" t="str">
         <f>VLOOKUP(B91,[1]底薪计算!D:D,1,FALSE)</f>
         <v>王武东</v>
       </c>
     </row>
     <row r="92" spans="1:9" hidden="1">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C92" s="5" t="str">
+      <c r="C92" s="4" t="str">
         <f>VLOOKUP(B92,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E92" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F92" s="5">
         <f>IF(AND(D92="直销",C92="Y"),1,IF(AND(D92="一体化",E92&lt;&gt;" "),0,IF(AND(D92="一体化",EC2992="Y"),1,0)))</f>
         <v>0</v>
       </c>
-      <c r="G92" s="6">
+      <c r="G92" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B92,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H92" s="7">
+      <c r="H92" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I92" s="2" t="str">
+      <c r="I92" s="1" t="str">
         <f>VLOOKUP(B92,[1]底薪计算!D:D,1,FALSE)</f>
         <v>朱文彬</v>
       </c>
     </row>
     <row r="93" spans="1:9" hidden="1">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C93" s="5" t="str">
+      <c r="C93" s="4" t="str">
         <f>VLOOKUP(B93,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E93" s="5"/>
-      <c r="F93" s="6">
+      <c r="E93" s="4"/>
+      <c r="F93" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G93" s="6">
+      <c r="G93" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B93,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H93" s="7">
+      <c r="H93" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I93" s="2" t="str">
+      <c r="I93" s="1" t="str">
         <f>VLOOKUP(B93,[1]底薪计算!D:D,1,FALSE)</f>
         <v>邓鸣健</v>
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C94" s="5" t="str">
+      <c r="C94" s="4" t="str">
         <f>VLOOKUP(B94,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E94" s="5" t="s">
+      <c r="D94" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F94" s="5">
         <f t="shared" ref="F94" si="4">IF(AND(D94="直销",C94="Y"),1,IF(AND(D94="一体化",E94&lt;&gt;" "),0,IF(AND(D94="一体化",EC2994="Y"),1,0)))</f>
         <v>1</v>
       </c>
-      <c r="G94" s="6">
+      <c r="G94" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B94,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H94" s="7"/>
-      <c r="I94" s="2" t="str">
+      <c r="H94" s="6"/>
+      <c r="I94" s="1" t="str">
         <f>VLOOKUP(B94,[1]底薪计算!D:D,1,FALSE)</f>
         <v>彭云明</v>
       </c>
     </row>
     <row r="95" spans="1:9" hidden="1">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C95" s="5" t="str">
+      <c r="C95" s="4" t="str">
         <f>VLOOKUP(B95,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F95" s="5">
         <f>IF(AND(D95="直销",C95="Y"),1,IF(AND(D95="一体化",E95&lt;&gt;" "),0,IF(AND(D95="一体化",EC2995="Y"),1,0)))</f>
         <v>0</v>
       </c>
-      <c r="G95" s="6">
+      <c r="G95" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B95,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H95" s="7">
+      <c r="H95" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I95" s="2" t="str">
+      <c r="I95" s="1" t="str">
         <f>VLOOKUP(B95,[1]底薪计算!D:D,1,FALSE)</f>
         <v>黄向长</v>
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C96" s="5" t="str">
+      <c r="C96" s="4" t="str">
         <f>VLOOKUP(B96,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E96" s="5" t="s">
+      <c r="D96" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F96" s="5">
         <f t="shared" ref="F96:F156" si="5">IF(AND(D96="直销",C96="Y"),1,IF(AND(D96="一体化",E96&lt;&gt;" "),0,IF(AND(D96="一体化",EC2996="Y"),1,0)))</f>
         <v>1</v>
       </c>
-      <c r="G96" s="6">
+      <c r="G96" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B96,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H96" s="7"/>
-      <c r="I96" s="2" t="str">
+      <c r="H96" s="6"/>
+      <c r="I96" s="1" t="str">
         <f>VLOOKUP(B96,[1]底薪计算!D:D,1,FALSE)</f>
         <v>易阿红</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C97" s="5" t="str">
+      <c r="C97" s="4" t="str">
         <f>VLOOKUP(B97,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D97" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E97" s="5" t="s">
+      <c r="D97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F97" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G97" s="6">
+      <c r="G97" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B97,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H97" s="7"/>
-      <c r="I97" s="2" t="str">
+      <c r="H97" s="6"/>
+      <c r="I97" s="1" t="str">
         <f>VLOOKUP(B97,[1]底薪计算!D:D,1,FALSE)</f>
         <v>冯三防</v>
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C98" s="5" t="str">
+      <c r="C98" s="4" t="str">
         <f>VLOOKUP(B98,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D98" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" s="5" t="s">
+      <c r="D98" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F98" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G98" s="6">
+      <c r="G98" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B98,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H98" s="7"/>
-      <c r="I98" s="2" t="str">
+      <c r="H98" s="6"/>
+      <c r="I98" s="1" t="str">
         <f>VLOOKUP(B98,[1]底薪计算!D:D,1,FALSE)</f>
         <v>彭英智</v>
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C99" s="5" t="str">
+      <c r="C99" s="4" t="str">
         <f>VLOOKUP(B99,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99" s="5" t="s">
+      <c r="D99" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F99" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G99" s="6">
+      <c r="G99" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B99,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H99" s="7"/>
-      <c r="I99" s="2" t="str">
+      <c r="H99" s="6"/>
+      <c r="I99" s="1" t="str">
         <f>VLOOKUP(B99,[1]底薪计算!D:D,1,FALSE)</f>
         <v>吴勇</v>
       </c>
     </row>
     <row r="100" spans="1:9" hidden="1">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C100" s="5" t="str">
+      <c r="C100" s="4" t="str">
         <f>VLOOKUP(B100,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E100" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F100" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G100" s="6">
+      <c r="G100" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B100,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H100" s="7">
+      <c r="H100" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I100" s="2" t="str">
+      <c r="I100" s="1" t="str">
         <f>VLOOKUP(B100,[1]底薪计算!D:D,1,FALSE)</f>
         <v>谭远明</v>
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C101" s="5" t="str">
+      <c r="C101" s="4" t="str">
         <f>VLOOKUP(B101,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" s="5" t="s">
+      <c r="D101" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F101" s="6">
+      <c r="F101" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G101" s="6">
+      <c r="G101" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B101,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H101" s="7"/>
-      <c r="I101" s="2" t="str">
+      <c r="H101" s="6"/>
+      <c r="I101" s="1" t="str">
         <f>VLOOKUP(B101,[1]底薪计算!D:D,1,FALSE)</f>
         <v>王意峰</v>
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C102" s="5" t="str">
+      <c r="C102" s="4" t="str">
         <f>VLOOKUP(B102,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D102" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" s="5" t="s">
+      <c r="D102" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F102" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G102" s="6">
+      <c r="G102" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B102,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H102" s="7"/>
-      <c r="I102" s="2" t="str">
+      <c r="H102" s="6"/>
+      <c r="I102" s="1" t="str">
         <f>VLOOKUP(B102,[1]底薪计算!D:D,1,FALSE)</f>
         <v>张泽文</v>
       </c>
     </row>
     <row r="103" spans="1:9" hidden="1">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C103" s="5" t="str">
+      <c r="C103" s="4" t="str">
         <f>VLOOKUP(B103,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E103" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F103" s="6">
+      <c r="F103" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G103" s="6">
+      <c r="G103" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B103,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H103" s="7">
+      <c r="H103" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I103" s="2" t="str">
+      <c r="I103" s="1" t="str">
         <f>VLOOKUP(B103,[1]底薪计算!D:D,1,FALSE)</f>
         <v>蔡定强</v>
       </c>
     </row>
     <row r="104" spans="1:9" hidden="1">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C104" s="5" t="str">
+      <c r="C104" s="4" t="str">
         <f>VLOOKUP(B104,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E104" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F104" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G104" s="6">
+      <c r="G104" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B104,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H104" s="7">
+      <c r="H104" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I104" s="2" t="str">
+      <c r="I104" s="1" t="str">
         <f>VLOOKUP(B104,[1]底薪计算!D:D,1,FALSE)</f>
         <v>李伟林</v>
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C105" s="5" t="str">
+      <c r="C105" s="4" t="str">
         <f>VLOOKUP(B105,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" s="5" t="s">
+      <c r="D105" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F105" s="6">
+      <c r="F105" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G105" s="6">
+      <c r="G105" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B105,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H105" s="7"/>
-      <c r="I105" s="2" t="str">
+      <c r="H105" s="6"/>
+      <c r="I105" s="1" t="str">
         <f>VLOOKUP(B105,[1]底薪计算!D:D,1,FALSE)</f>
         <v>魏祥洋</v>
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C106" s="5" t="e">
+      <c r="C106" s="4" t="e">
         <f>VLOOKUP(B106,[1]底薪计算!D:I,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D106" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" s="5"/>
-      <c r="F106" s="6" t="e">
+      <c r="D106" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="4"/>
+      <c r="F106" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G106" s="6">
+      <c r="G106" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B106,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H106" s="7"/>
-      <c r="I106" s="2" t="e">
+      <c r="H106" s="6"/>
+      <c r="I106" s="1" t="e">
         <f>VLOOKUP(B106,[1]底薪计算!D:D,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="1:9" hidden="1">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C107" s="5" t="str">
+      <c r="C107" s="4" t="str">
         <f>VLOOKUP(B107,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E107" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F107" s="6">
+      <c r="F107" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G107" s="6">
+      <c r="G107" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B107,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H107" s="7">
+      <c r="H107" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I107" s="2" t="str">
+      <c r="I107" s="1" t="str">
         <f>VLOOKUP(B107,[1]底薪计算!D:D,1,FALSE)</f>
         <v>王成</v>
       </c>
     </row>
     <row r="108" spans="1:9" hidden="1">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C108" s="5" t="str">
+      <c r="C108" s="4" t="str">
         <f>VLOOKUP(B108,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="E108" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F108" s="6">
+      <c r="F108" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G108" s="6">
+      <c r="G108" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B108,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H108" s="7">
+      <c r="H108" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I108" s="2" t="str">
+      <c r="I108" s="1" t="str">
         <f>VLOOKUP(B108,[1]底薪计算!D:D,1,FALSE)</f>
         <v>宋孝波</v>
       </c>
     </row>
     <row r="109" spans="1:9" hidden="1">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C109" s="5" t="str">
+      <c r="C109" s="4" t="str">
         <f>VLOOKUP(B109,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E109" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="F109" s="6">
+      <c r="F109" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G109" s="6">
+      <c r="G109" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B109,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H109" s="7">
+      <c r="H109" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I109" s="2" t="str">
+      <c r="I109" s="1" t="str">
         <f>VLOOKUP(B109,[1]底薪计算!D:D,1,FALSE)</f>
         <v>付森基</v>
       </c>
     </row>
     <row r="110" spans="1:9" hidden="1">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C110" s="5" t="str">
+      <c r="C110" s="4" t="str">
         <f>VLOOKUP(B110,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E110" s="5"/>
-      <c r="F110" s="6">
+      <c r="E110" s="4"/>
+      <c r="F110" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G110" s="6">
+      <c r="G110" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B110,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H110" s="7">
+      <c r="H110" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I110" s="2" t="str">
+      <c r="I110" s="1" t="str">
         <f>VLOOKUP(B110,[1]底薪计算!D:D,1,FALSE)</f>
         <v>焦慧君</v>
       </c>
     </row>
     <row r="111" spans="1:9" hidden="1">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C111" s="5" t="str">
+      <c r="C111" s="4" t="str">
         <f>VLOOKUP(B111,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E111" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F111" s="6">
+      <c r="F111" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G111" s="6">
+      <c r="G111" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B111,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H111" s="7">
+      <c r="H111" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I111" s="2" t="str">
+      <c r="I111" s="1" t="str">
         <f>VLOOKUP(B111,[1]底薪计算!D:D,1,FALSE)</f>
         <v>萧子大</v>
       </c>
     </row>
     <row r="112" spans="1:9" hidden="1">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C112" s="5" t="str">
+      <c r="C112" s="4" t="str">
         <f>VLOOKUP(B112,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="E112" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F112" s="6">
+      <c r="F112" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G112" s="6">
+      <c r="G112" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B112,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H112" s="7">
+      <c r="H112" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I112" s="2" t="str">
+      <c r="I112" s="1" t="str">
         <f>VLOOKUP(B112,[1]底薪计算!D:D,1,FALSE)</f>
         <v>杜嘉明</v>
       </c>
     </row>
     <row r="113" spans="1:9" hidden="1">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C113" s="5" t="str">
+      <c r="C113" s="4" t="str">
         <f>VLOOKUP(B113,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E113" s="5"/>
-      <c r="F113" s="6">
+      <c r="E113" s="4"/>
+      <c r="F113" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G113" s="6">
+      <c r="G113" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B113,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H113" s="7">
+      <c r="H113" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I113" s="2" t="str">
+      <c r="I113" s="1" t="str">
         <f>VLOOKUP(B113,[1]底薪计算!D:D,1,FALSE)</f>
         <v>陈彦忠</v>
       </c>
     </row>
     <row r="114" spans="1:9" hidden="1">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C114" s="5" t="str">
+      <c r="C114" s="4" t="str">
         <f>VLOOKUP(B114,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E114" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F114" s="6">
+      <c r="F114" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G114" s="6">
+      <c r="G114" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B114,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H114" s="7">
+      <c r="H114" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I114" s="2" t="str">
+      <c r="I114" s="1" t="str">
         <f>VLOOKUP(B114,[1]底薪计算!D:D,1,FALSE)</f>
         <v>黎兵兵</v>
       </c>
     </row>
     <row r="115" spans="1:9" hidden="1">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C115" s="5" t="str">
+      <c r="C115" s="4" t="str">
         <f>VLOOKUP(B115,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D115" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E115" s="5"/>
-      <c r="F115" s="6">
+      <c r="E115" s="4"/>
+      <c r="F115" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G115" s="6">
+      <c r="G115" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B115,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H115" s="7">
+      <c r="H115" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I115" s="2" t="str">
+      <c r="I115" s="1" t="str">
         <f>VLOOKUP(B115,[1]底薪计算!D:D,1,FALSE)</f>
         <v>罗志文</v>
       </c>
     </row>
     <row r="116" spans="1:9" hidden="1">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C116" s="5" t="str">
+      <c r="C116" s="4" t="str">
         <f>VLOOKUP(B116,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E116" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F116" s="6">
+      <c r="F116" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G116" s="6">
+      <c r="G116" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B116,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H116" s="7">
+      <c r="H116" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I116" s="2" t="str">
+      <c r="I116" s="1" t="str">
         <f>VLOOKUP(B116,[1]底薪计算!D:D,1,FALSE)</f>
         <v>吴斌</v>
       </c>
     </row>
     <row r="117" spans="1:9" hidden="1">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C117" s="5" t="str">
+      <c r="C117" s="4" t="str">
         <f>VLOOKUP(B117,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D117" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E117" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F117" s="6">
+      <c r="F117" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G117" s="6">
+      <c r="G117" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B117,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H117" s="7">
+      <c r="H117" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I117" s="2" t="str">
+      <c r="I117" s="1" t="str">
         <f>VLOOKUP(B117,[1]底薪计算!D:D,1,FALSE)</f>
         <v>谢熙</v>
       </c>
     </row>
     <row r="118" spans="1:9" hidden="1">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C118" s="5" t="str">
+      <c r="C118" s="4" t="str">
         <f>VLOOKUP(B118,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="E118" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F118" s="6">
+      <c r="F118" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G118" s="6">
+      <c r="G118" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B118,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H118" s="7">
+      <c r="H118" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I118" s="2" t="str">
+      <c r="I118" s="1" t="str">
         <f>VLOOKUP(B118,[1]底薪计算!D:D,1,FALSE)</f>
         <v>辛芳明</v>
       </c>
     </row>
     <row r="119" spans="1:9" hidden="1">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C119" s="5" t="str">
+      <c r="C119" s="4" t="str">
         <f>VLOOKUP(B119,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E119" s="5"/>
-      <c r="F119" s="6">
+      <c r="E119" s="4"/>
+      <c r="F119" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G119" s="6">
+      <c r="G119" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B119,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H119" s="7">
+      <c r="H119" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I119" s="2" t="str">
+      <c r="I119" s="1" t="str">
         <f>VLOOKUP(B119,[1]底薪计算!D:D,1,FALSE)</f>
         <v>欧阳德青</v>
       </c>
     </row>
     <row r="120" spans="1:9" hidden="1">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C120" s="5" t="str">
+      <c r="C120" s="4" t="str">
         <f>VLOOKUP(B120,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D120" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E120" s="5"/>
-      <c r="F120" s="6">
+      <c r="E120" s="4"/>
+      <c r="F120" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G120" s="6">
+      <c r="G120" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B120,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H120" s="7">
+      <c r="H120" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I120" s="2" t="str">
+      <c r="I120" s="1" t="str">
         <f>VLOOKUP(B120,[1]底薪计算!D:D,1,FALSE)</f>
         <v>方华东</v>
       </c>
     </row>
     <row r="121" spans="1:9" hidden="1">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C121" s="5" t="e">
+      <c r="C121" s="4" t="e">
         <f>VLOOKUP(B121,[1]底薪计算!D:I,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E121" s="5"/>
-      <c r="F121" s="6" t="e">
+      <c r="E121" s="4"/>
+      <c r="F121" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G121" s="6">
+      <c r="G121" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B121,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H121" s="7" t="e">
+      <c r="H121" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="I121" s="2" t="e">
+      <c r="I121" s="1" t="e">
         <f>VLOOKUP(B121,[1]底薪计算!D:D,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="122" spans="1:9" hidden="1">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C122" s="5" t="e">
+      <c r="C122" s="4" t="e">
         <f>VLOOKUP(B122,[1]底薪计算!D:I,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D122" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E122" s="5"/>
-      <c r="F122" s="6" t="e">
+      <c r="E122" s="4"/>
+      <c r="F122" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G122" s="6">
+      <c r="G122" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B122,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H122" s="7" t="e">
+      <c r="H122" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="I122" s="2" t="e">
+      <c r="I122" s="1" t="e">
         <f>VLOOKUP(B122,[1]底薪计算!D:D,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="1:9" hidden="1">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C123" s="5" t="str">
+      <c r="C123" s="4" t="str">
         <f>VLOOKUP(B123,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D123" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E123" s="5"/>
-      <c r="F123" s="6">
+      <c r="E123" s="4"/>
+      <c r="F123" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G123" s="6">
+      <c r="G123" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B123,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H123" s="7">
+      <c r="H123" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I123" s="2" t="str">
+      <c r="I123" s="1" t="str">
         <f>VLOOKUP(B123,[1]底薪计算!D:D,1,FALSE)</f>
         <v>韩相力</v>
       </c>
     </row>
     <row r="124" spans="1:9" hidden="1">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C124" s="5" t="str">
+      <c r="C124" s="4" t="str">
         <f>VLOOKUP(B124,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D124" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E124" s="5"/>
-      <c r="F124" s="6">
+      <c r="E124" s="4"/>
+      <c r="F124" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G124" s="6">
+      <c r="G124" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B124,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H124" s="7">
+      <c r="H124" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I124" s="2" t="str">
+      <c r="I124" s="1" t="str">
         <f>VLOOKUP(B124,[1]底薪计算!D:D,1,FALSE)</f>
         <v>陈志鹏</v>
       </c>
     </row>
     <row r="125" spans="1:9" hidden="1">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C125" s="5" t="str">
+      <c r="C125" s="4" t="str">
         <f>VLOOKUP(B125,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D125" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E125" s="5"/>
-      <c r="F125" s="6">
+      <c r="E125" s="4"/>
+      <c r="F125" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G125" s="6">
+      <c r="G125" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B125,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H125" s="7">
+      <c r="H125" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I125" s="2" t="str">
+      <c r="I125" s="1" t="str">
         <f>VLOOKUP(B125,[1]底薪计算!D:D,1,FALSE)</f>
         <v>黄义凯</v>
       </c>
     </row>
     <row r="126" spans="1:9" hidden="1">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C126" s="5" t="e">
+      <c r="C126" s="4" t="e">
         <f>VLOOKUP(B126,[1]底薪计算!D:I,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D126" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E126" s="5"/>
-      <c r="F126" s="6" t="e">
+      <c r="E126" s="4"/>
+      <c r="F126" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G126" s="6">
+      <c r="G126" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B126,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H126" s="7" t="e">
+      <c r="H126" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="I126" s="2" t="e">
+      <c r="I126" s="1" t="e">
         <f>VLOOKUP(B126,[1]底薪计算!D:D,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="127" spans="1:9" hidden="1">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C127" s="4">
         <f>VLOOKUP(B127,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D127" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E127" s="5"/>
-      <c r="F127" s="6">
+      <c r="E127" s="4"/>
+      <c r="F127" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G127" s="6">
+      <c r="G127" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B127,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H127" s="7">
+      <c r="H127" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I127" s="2" t="str">
+      <c r="I127" s="1" t="str">
         <f>VLOOKUP(B127,[1]底薪计算!D:D,1,FALSE)</f>
         <v>裴沛</v>
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C128" s="5" t="str">
+      <c r="C128" s="4" t="str">
         <f>VLOOKUP(B128,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D128" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E128" s="5"/>
-      <c r="F128" s="6">
+      <c r="D128" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" s="4"/>
+      <c r="F128" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G128" s="6">
+      <c r="G128" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B128,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H128" s="7"/>
-      <c r="I128" s="2" t="str">
+      <c r="H128" s="6"/>
+      <c r="I128" s="1" t="str">
         <f>VLOOKUP(B128,[1]底薪计算!D:D,1,FALSE)</f>
         <v>卢丹龙</v>
       </c>
     </row>
     <row r="129" spans="1:9" hidden="1">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C129" s="5" t="str">
+      <c r="C129" s="4" t="str">
         <f>VLOOKUP(B129,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D129" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E129" s="5"/>
-      <c r="F129" s="6">
+      <c r="E129" s="4"/>
+      <c r="F129" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G129" s="6">
+      <c r="G129" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B129,'[1]4-5月集团客户明细'!P:P)</f>
         <v>0</v>
       </c>
-      <c r="H129" s="7">
+      <c r="H129" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I129" s="2" t="str">
+      <c r="I129" s="1" t="str">
         <f>VLOOKUP(B129,[1]底薪计算!D:D,1,FALSE)</f>
         <v>吴四一</v>
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C130" s="4">
         <f>VLOOKUP(B130,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="D130" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E130" s="5"/>
-      <c r="F130" s="6">
+      <c r="D130" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" s="4"/>
+      <c r="F130" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G130" s="6">
+      <c r="G130" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B130,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H130" s="7"/>
-      <c r="I130" s="2" t="str">
+      <c r="H130" s="6"/>
+      <c r="I130" s="1" t="str">
         <f>VLOOKUP(B130,[1]底薪计算!D:D,1,FALSE)</f>
         <v>岑常师</v>
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C131" s="5">
+      <c r="C131" s="4">
         <f>VLOOKUP(B131,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="D131" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E131" s="5"/>
-      <c r="F131" s="6">
+      <c r="D131" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" s="4"/>
+      <c r="F131" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G131" s="6">
+      <c r="G131" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B131,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H131" s="7"/>
-      <c r="I131" s="2" t="str">
+      <c r="H131" s="6"/>
+      <c r="I131" s="1" t="str">
         <f>VLOOKUP(B131,[1]底薪计算!D:D,1,FALSE)</f>
         <v>刘志成</v>
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C132" s="5">
+      <c r="C132" s="4">
         <f>VLOOKUP(B132,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="D132" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E132" s="5"/>
-      <c r="F132" s="6">
+      <c r="D132" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" s="4"/>
+      <c r="F132" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G132" s="6">
+      <c r="G132" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B132,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H132" s="7"/>
-      <c r="I132" s="2" t="str">
+      <c r="H132" s="6"/>
+      <c r="I132" s="1" t="str">
         <f>VLOOKUP(B132,[1]底薪计算!D:D,1,FALSE)</f>
         <v>韦文生</v>
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C133" s="5">
+      <c r="C133" s="4">
         <f>VLOOKUP(B133,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="D133" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E133" s="5"/>
-      <c r="F133" s="6">
+      <c r="D133" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" s="4"/>
+      <c r="F133" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G133" s="6">
+      <c r="G133" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B133,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H133" s="7"/>
-      <c r="I133" s="2" t="str">
+      <c r="H133" s="6"/>
+      <c r="I133" s="1" t="str">
         <f>VLOOKUP(B133,[1]底薪计算!D:D,1,FALSE)</f>
         <v>黄继生</v>
       </c>
     </row>
     <row r="134" spans="1:9" hidden="1">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C134" s="4">
         <f>VLOOKUP(B134,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D134" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E134" s="5"/>
-      <c r="F134" s="6">
+      <c r="E134" s="4"/>
+      <c r="F134" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G134" s="6">
+      <c r="G134" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B134,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H134" s="7">
+      <c r="H134" s="6">
         <f t="shared" ref="H134:H154" si="6">IF(AND(C134="Y",G134&lt;F134),-100,0)</f>
         <v>0</v>
       </c>
-      <c r="I134" s="2" t="str">
+      <c r="I134" s="1" t="str">
         <f>VLOOKUP(B134,[1]底薪计算!D:D,1,FALSE)</f>
         <v>吴国明</v>
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C135" s="5">
+      <c r="C135" s="4">
         <f>VLOOKUP(B135,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="D135" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E135" s="5"/>
-      <c r="F135" s="6">
+      <c r="D135" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" s="4"/>
+      <c r="F135" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G135" s="6">
+      <c r="G135" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B135,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H135" s="7"/>
-      <c r="I135" s="2" t="str">
+      <c r="H135" s="6"/>
+      <c r="I135" s="1" t="str">
         <f>VLOOKUP(B135,[1]底薪计算!D:D,1,FALSE)</f>
         <v>莫灵快</v>
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="5" t="s">
+      <c r="A136" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C136" s="5">
+      <c r="C136" s="4">
         <f>VLOOKUP(B136,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="D136" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E136" s="5"/>
-      <c r="F136" s="6">
+      <c r="D136" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" s="4"/>
+      <c r="F136" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G136" s="6">
+      <c r="G136" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B136,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H136" s="7"/>
-      <c r="I136" s="2" t="str">
+      <c r="H136" s="6"/>
+      <c r="I136" s="1" t="str">
         <f>VLOOKUP(B136,[1]底薪计算!D:D,1,FALSE)</f>
         <v>杜中</v>
       </c>
     </row>
     <row r="137" spans="1:9" hidden="1">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C137" s="5">
+      <c r="C137" s="4">
         <f>VLOOKUP(B137,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D137" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E137" s="5"/>
-      <c r="F137" s="6">
+      <c r="E137" s="4"/>
+      <c r="F137" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G137" s="6">
+      <c r="G137" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B137,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H137" s="7">
+      <c r="H137" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I137" s="2" t="str">
+      <c r="I137" s="1" t="str">
         <f>VLOOKUP(B137,[1]底薪计算!D:D,1,FALSE)</f>
         <v>袁新景</v>
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C138" s="5" t="e">
+      <c r="C138" s="4" t="e">
         <f>VLOOKUP(B138,[1]底薪计算!D:I,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D138" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E138" s="5"/>
-      <c r="F138" s="6" t="e">
+      <c r="D138" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" s="4"/>
+      <c r="F138" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G138" s="6">
+      <c r="G138" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B138,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H138" s="7"/>
-      <c r="I138" s="2" t="e">
+      <c r="H138" s="6"/>
+      <c r="I138" s="1" t="e">
         <f>VLOOKUP(B138,[1]底薪计算!D:D,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="139" spans="1:9" hidden="1">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C139" s="5">
+      <c r="C139" s="4">
         <f>VLOOKUP(B139,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D139" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E139" s="5"/>
-      <c r="F139" s="6">
+      <c r="E139" s="4"/>
+      <c r="F139" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G139" s="6">
+      <c r="G139" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B139,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H139" s="7">
+      <c r="H139" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I139" s="2" t="str">
+      <c r="I139" s="1" t="str">
         <f>VLOOKUP(B139,[1]底薪计算!D:D,1,FALSE)</f>
         <v>王秋焕</v>
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C140" s="5">
+      <c r="C140" s="4">
         <f>VLOOKUP(B140,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="D140" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E140" s="5"/>
-      <c r="F140" s="6">
+      <c r="D140" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" s="4"/>
+      <c r="F140" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G140" s="6">
+      <c r="G140" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B140,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H140" s="7"/>
-      <c r="I140" s="2" t="str">
+      <c r="H140" s="6"/>
+      <c r="I140" s="1" t="str">
         <f>VLOOKUP(B140,[1]底薪计算!D:D,1,FALSE)</f>
         <v>吴楚伟</v>
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C141" s="5">
+      <c r="C141" s="4">
         <f>VLOOKUP(B141,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="D141" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E141" s="5"/>
-      <c r="F141" s="6">
+      <c r="D141" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" s="4"/>
+      <c r="F141" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G141" s="6">
+      <c r="G141" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B141,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H141" s="7"/>
-      <c r="I141" s="2" t="str">
+      <c r="H141" s="6"/>
+      <c r="I141" s="1" t="str">
         <f>VLOOKUP(B141,[1]底薪计算!D:D,1,FALSE)</f>
         <v>刘德昌</v>
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C142" s="5">
+      <c r="C142" s="4">
         <f>VLOOKUP(B142,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="D142" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E142" s="5"/>
-      <c r="F142" s="6">
+      <c r="D142" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" s="4"/>
+      <c r="F142" s="5">
         <f>IF(AND(D142="直销",C142="Y"),1,IF(AND(D142="一体化",E142&lt;&gt;" "),0,IF(AND(D142="一体化",EC3042="Y"),1,0)))</f>
         <v>0</v>
       </c>
-      <c r="G142" s="6">
+      <c r="G142" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B142,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H142" s="7"/>
-      <c r="I142" s="2" t="str">
+      <c r="H142" s="6"/>
+      <c r="I142" s="1" t="str">
         <f>VLOOKUP(B142,[1]底薪计算!D:D,1,FALSE)</f>
         <v>刘德生</v>
       </c>
     </row>
     <row r="143" spans="1:9" hidden="1">
-      <c r="A143" s="5" t="s">
+      <c r="A143" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B143" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C143" s="5">
+      <c r="C143" s="4">
         <f>VLOOKUP(B143,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="D143" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E143" s="5"/>
-      <c r="F143" s="6">
+      <c r="E143" s="4"/>
+      <c r="F143" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G143" s="6">
+      <c r="G143" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B143,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H143" s="7">
+      <c r="H143" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I143" s="2" t="str">
+      <c r="I143" s="1" t="str">
         <f>VLOOKUP(B143,[1]底薪计算!D:D,1,FALSE)</f>
         <v>张远庭</v>
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C144" s="5">
+      <c r="C144" s="4">
         <f>VLOOKUP(B144,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="D144" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E144" s="5"/>
-      <c r="F144" s="6">
+      <c r="D144" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" s="4"/>
+      <c r="F144" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G144" s="6">
+      <c r="G144" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B144,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H144" s="7"/>
-      <c r="I144" s="2" t="str">
+      <c r="H144" s="6"/>
+      <c r="I144" s="1" t="str">
         <f>VLOOKUP(B144,[1]底薪计算!D:D,1,FALSE)</f>
         <v>张秀标</v>
       </c>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C145" s="5">
+      <c r="C145" s="4">
         <f>VLOOKUP(B145,[1]底薪计算!D:I,6,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="D145" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E145" s="5"/>
-      <c r="F145" s="6">
+      <c r="D145" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" s="4"/>
+      <c r="F145" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G145" s="6">
+      <c r="G145" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B145,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H145" s="7"/>
-      <c r="I145" s="2" t="str">
+      <c r="H145" s="6"/>
+      <c r="I145" s="1" t="str">
         <f>VLOOKUP(B145,[1]底薪计算!D:D,1,FALSE)</f>
         <v>刘松涛</v>
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C146" s="5">
+      <c r="C146" s="4">
         <f>VLOOKUP(B146,[1]底薪计算!D:I,6,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="D146" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E146" s="5"/>
-      <c r="F146" s="6">
+      <c r="D146" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" s="4"/>
+      <c r="F146" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G146" s="6">
+      <c r="G146" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B146,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H146" s="7"/>
-      <c r="I146" s="2" t="str">
+      <c r="H146" s="6"/>
+      <c r="I146" s="1" t="str">
         <f>VLOOKUP(B146,[1]底薪计算!D:D,1,FALSE)</f>
         <v>杨平金</v>
       </c>
     </row>
     <row r="147" spans="1:9" hidden="1">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C147" s="5">
+      <c r="C147" s="4">
         <f>VLOOKUP(B147,[1]底薪计算!D:I,6,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="D147" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E147" s="5" t="s">
+      <c r="E147" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F147" s="6">
+      <c r="F147" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G147" s="6">
+      <c r="G147" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B147,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H147" s="7">
+      <c r="H147" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I147" s="2" t="str">
+      <c r="I147" s="1" t="str">
         <f>VLOOKUP(B147,[1]底薪计算!D:D,1,FALSE)</f>
         <v>汪洞辉</v>
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="5" t="s">
+      <c r="A148" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C148" s="5">
+      <c r="C148" s="4">
         <f>VLOOKUP(B148,[1]底薪计算!D:I,6,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="D148" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E148" s="5"/>
-      <c r="F148" s="6">
+      <c r="D148" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" s="4"/>
+      <c r="F148" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G148" s="6">
+      <c r="G148" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B148,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H148" s="7"/>
-      <c r="I148" s="2" t="str">
+      <c r="H148" s="6"/>
+      <c r="I148" s="1" t="str">
         <f>VLOOKUP(B148,[1]底薪计算!D:D,1,FALSE)</f>
         <v>左明亮</v>
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C149" s="5">
+      <c r="C149" s="4">
         <f>VLOOKUP(B149,[1]底薪计算!D:I,6,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="D149" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E149" s="5"/>
-      <c r="F149" s="6">
+      <c r="D149" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" s="4"/>
+      <c r="F149" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G149" s="6">
+      <c r="G149" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B149,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H149" s="7"/>
-      <c r="I149" s="2" t="str">
+      <c r="H149" s="6"/>
+      <c r="I149" s="1" t="str">
         <f>VLOOKUP(B149,[1]底薪计算!D:D,1,FALSE)</f>
         <v>张宏波</v>
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C150" s="5">
+      <c r="C150" s="4">
         <f>VLOOKUP(B150,[1]底薪计算!D:I,6,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="D150" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E150" s="5"/>
-      <c r="F150" s="6">
+      <c r="D150" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" s="4"/>
+      <c r="F150" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G150" s="6">
+      <c r="G150" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B150,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H150" s="7"/>
-      <c r="I150" s="2" t="str">
+      <c r="H150" s="6"/>
+      <c r="I150" s="1" t="str">
         <f>VLOOKUP(B150,[1]底薪计算!D:D,1,FALSE)</f>
         <v>黄清浩</v>
       </c>
     </row>
     <row r="151" spans="1:9" hidden="1">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C151" s="5">
+      <c r="C151" s="4">
         <f>VLOOKUP(B151,[1]底薪计算!D:I,6,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="D151" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E151" s="5"/>
-      <c r="F151" s="6">
+      <c r="E151" s="4"/>
+      <c r="F151" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G151" s="6">
+      <c r="G151" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B151,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H151" s="7">
+      <c r="H151" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I151" s="2" t="str">
+      <c r="I151" s="1" t="str">
         <f>VLOOKUP(B151,[1]底薪计算!D:D,1,FALSE)</f>
         <v>王立斌</v>
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="5" t="s">
+      <c r="A152" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C152" s="5">
+      <c r="C152" s="4">
         <f>VLOOKUP(B152,[1]底薪计算!D:I,6,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="D152" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E152" s="5"/>
-      <c r="F152" s="6">
+      <c r="D152" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" s="4"/>
+      <c r="F152" s="5">
         <f>IF(AND(D152="直销",C152="Y"),1,IF(AND(D152="一体化",E152&lt;&gt;" "),0,IF(AND(D152="一体化",EC3052="Y"),1,0)))</f>
         <v>0</v>
       </c>
-      <c r="G152" s="6">
+      <c r="G152" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B152,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H152" s="7"/>
-      <c r="I152" s="2" t="str">
+      <c r="H152" s="6"/>
+      <c r="I152" s="1" t="str">
         <f>VLOOKUP(B152,[1]底薪计算!D:D,1,FALSE)</f>
         <v>黄汝富</v>
       </c>
     </row>
     <row r="153" spans="1:9" hidden="1">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C153" s="5">
+      <c r="C153" s="4">
         <f>VLOOKUP(B153,[1]底薪计算!D:I,6,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D153" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E153" s="5"/>
-      <c r="F153" s="6">
+      <c r="E153" s="4"/>
+      <c r="F153" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G153" s="6">
+      <c r="G153" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B153,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H153" s="7">
+      <c r="H153" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I153" s="2" t="str">
+      <c r="I153" s="1" t="str">
         <f>VLOOKUP(B153,[1]底薪计算!D:D,1,FALSE)</f>
         <v>陈亚贤</v>
       </c>
     </row>
     <row r="154" spans="1:9" hidden="1">
-      <c r="A154" s="5" t="s">
+      <c r="A154" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C154" s="5">
+      <c r="C154" s="4">
         <f>VLOOKUP(B154,[1]底薪计算!D:I,6,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="D154" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E154" s="5"/>
-      <c r="F154" s="6">
+      <c r="E154" s="4"/>
+      <c r="F154" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G154" s="6">
+      <c r="G154" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B154,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H154" s="7">
+      <c r="H154" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I154" s="2" t="str">
+      <c r="I154" s="1" t="str">
         <f>VLOOKUP(B154,[1]底薪计算!D:D,1,FALSE)</f>
         <v>王翔</v>
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C155" s="5">
+      <c r="C155" s="4">
         <f>VLOOKUP(B155,[1]底薪计算!D:I,6,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="D155" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E155" s="5"/>
-      <c r="F155" s="6">
+      <c r="D155" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" s="4"/>
+      <c r="F155" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G155" s="6">
+      <c r="G155" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B155,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H155" s="7"/>
-      <c r="I155" s="2" t="str">
+      <c r="H155" s="6"/>
+      <c r="I155" s="1" t="str">
         <f>VLOOKUP(B155,[1]底薪计算!D:D,1,FALSE)</f>
         <v>吴贤锦</v>
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C156" s="5">
+      <c r="C156" s="4">
         <f>VLOOKUP(B156,[1]底薪计算!D:I,6,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="D156" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E156" s="5"/>
-      <c r="F156" s="6">
+      <c r="D156" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" s="4"/>
+      <c r="F156" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G156" s="6">
+      <c r="G156" s="5">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B156,'[1]4-5月集团客户明细'!N:N)</f>
         <v>0</v>
       </c>
-      <c r="H156" s="7"/>
-      <c r="I156" s="2" t="str">
+      <c r="H156" s="6"/>
+      <c r="I156" s="1" t="str">
         <f>VLOOKUP(B156,[1]底薪计算!D:D,1,FALSE)</f>
         <v>杜昇华</v>
       </c>

--- a/src/main/webapp/download/集团客户考核.xlsx
+++ b/src/main/webapp/download/集团客户考核.xlsx
@@ -931,14 +931,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -966,9 +967,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 10" xfId="3"/>
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 2 2 2" xfId="1"/>
   </cellStyles>
@@ -3804,9 +3809,27 @@
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="18">
+        <row r="1">
+          <cell r="F1" t="str">
+            <v>发展人名称</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="19">
+        <row r="1">
+          <cell r="E1" t="str">
+            <v>发展人</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="20">
+        <row r="1">
+          <cell r="Q1" t="str">
+            <v>发展人</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
@@ -4160,7 +4183,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M24" sqref="M24"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4236,9 +4259,9 @@
         <f t="shared" ref="F3:F28" si="0">IF(AND(D3="直销",C3="Y"),1,IF(AND(D3="一体化",E3&lt;&gt;" "),0,IF(AND(D3="一体化",EC2903="Y"),1,0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B3,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="1" t="e">
@@ -4267,9 +4290,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B4,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="1" t="str">
@@ -4291,14 +4314,14 @@
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B5,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="1" t="e">
@@ -4327,9 +4350,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B6,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="1" t="str">
@@ -4358,9 +4381,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B7,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="1" t="str">
@@ -4389,9 +4412,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B8,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="1" t="str">
@@ -4420,9 +4443,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B9,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="1" t="str">
@@ -4451,9 +4474,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B10,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="1" t="str">
@@ -4482,9 +4505,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B11,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="1" t="str">
@@ -4513,9 +4536,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B12,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="1" t="str">
@@ -4544,9 +4567,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B13,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="1" t="str">
@@ -4575,9 +4598,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B14,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="1" t="str">
@@ -4606,9 +4629,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B15,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="1" t="str">
@@ -4637,9 +4660,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B16,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="1" t="str">
@@ -4666,9 +4689,9 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B17,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="1" t="e">
@@ -4697,9 +4720,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B18,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="1" t="str">
@@ -4728,9 +4751,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B19,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="1" t="str">
@@ -4759,9 +4782,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B20,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="1" t="str">
@@ -4790,9 +4813,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B21,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="1" t="str">
@@ -4821,9 +4844,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B22,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="1" t="str">
@@ -4852,9 +4875,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B23,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="1" t="str">
@@ -4883,9 +4906,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B24,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="1" t="str">
@@ -4914,9 +4937,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B25,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="1" t="str">
@@ -4945,9 +4968,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B26,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="1" t="str">
@@ -4976,9 +4999,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B27,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="1" t="str">
@@ -5007,9 +5030,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B28,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="1" t="str">
@@ -5038,13 +5061,13 @@
         <f>IF(AND(D29="直销",C29="Y"),1,IF(AND(D29="一体化",E29&lt;&gt;" "),0,IF(AND(D29="一体化",EC2929="Y"),1,0)))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B29,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H29" s="6" t="e">
         <f t="shared" ref="H29:H67" si="1">IF(AND(C29="Y",G29&lt;F29),-100,0)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I29" s="1" t="str">
         <f>VLOOKUP(B29,[1]底薪计算!D:D,1,FALSE)</f>
@@ -5070,9 +5093,9 @@
         <f t="shared" ref="F30:F93" si="2">IF(AND(D30="直销",C30="Y"),1,IF(AND(D30="一体化",E30&lt;&gt;" "),0,IF(AND(D30="一体化",EC2930="Y"),1,0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B30,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="1" t="e">
@@ -5101,9 +5124,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B31,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="1" t="str">
@@ -5132,9 +5155,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B32,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="1" t="str">
@@ -5163,9 +5186,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B33,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="1" t="str">
@@ -5194,9 +5217,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B34,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="1" t="str">
@@ -5225,9 +5248,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B35,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="1" t="str">
@@ -5256,9 +5279,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B36,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="1" t="str">
@@ -5287,9 +5310,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B37,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="1" t="str">
@@ -5318,9 +5341,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B38,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="1" t="str">
@@ -5349,9 +5372,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B39,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="1" t="str">
@@ -5380,9 +5403,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B40,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="1" t="str">
@@ -5409,9 +5432,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B41,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="1" t="e">
@@ -5440,9 +5463,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B42,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="1" t="str">
@@ -5471,9 +5494,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B43,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="1" t="str">
@@ -5502,9 +5525,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B44,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="1" t="str">
@@ -5533,9 +5556,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B45,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="1" t="str">
@@ -5564,9 +5587,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B46,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="1" t="str">
@@ -5595,9 +5618,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B47,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="1" t="str">
@@ -5626,9 +5649,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B48,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="1" t="str">
@@ -5657,9 +5680,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B49,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="1" t="str">
@@ -5688,9 +5711,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B50,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="1" t="str">
@@ -5717,9 +5740,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B51,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="1" t="e">
@@ -5746,9 +5769,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B52,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="1" t="str">
@@ -5777,9 +5800,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B53,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="1" t="str">
@@ -5808,9 +5831,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B54,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="1" t="str">
@@ -5839,9 +5862,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B55,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="1" t="str">
@@ -5870,9 +5893,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B56,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="1" t="str">
@@ -5901,9 +5924,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B57,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="1" t="str">
@@ -5932,9 +5955,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B58,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="1" t="str">
@@ -5963,9 +5986,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B59,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="1" t="str">
@@ -5994,9 +6017,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B60,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="1" t="str">
@@ -6025,9 +6048,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B61,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="1" t="str">
@@ -6054,9 +6077,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B62,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="1" t="e">
@@ -6085,9 +6108,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B63,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="1" t="str">
@@ -6116,9 +6139,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G64" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B64,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="1" t="str">
@@ -6147,9 +6170,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G65" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B65,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="1" t="str">
@@ -6178,9 +6201,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B66,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="1" t="str">
@@ -6209,13 +6232,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B67,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H67" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I67" s="1" t="str">
         <f>VLOOKUP(B67,[1]底薪计算!D:D,1,FALSE)</f>
@@ -6241,9 +6264,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G68" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B68,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="1" t="str">
@@ -6270,9 +6293,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B69,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="1" t="e">
@@ -6299,9 +6322,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G70" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B70,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="1" t="str">
@@ -6328,9 +6351,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B71,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="1" t="str">
@@ -6359,9 +6382,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G72" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B72,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="1" t="str">
@@ -6388,9 +6411,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G73" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B73,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="1" t="e">
@@ -6417,9 +6440,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G74" s="5">
+      <c r="G74" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B74,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="1" t="e">
@@ -6446,9 +6469,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G75" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B75,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="1" t="str">
@@ -6475,9 +6498,9 @@
         <f>IF(AND(D76="直销",C76="Y"),1,IF(AND(D76="一体化",E76&lt;&gt;" "),0,IF(AND(D76="一体化",EC2976="Y"),1,0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="G76" s="5">
+      <c r="G76" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B76,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="1" t="e">
@@ -6504,9 +6527,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G77" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B77,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="1" t="str">
@@ -6533,9 +6556,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G78" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B78,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H78" s="6"/>
       <c r="I78" s="1" t="e">
@@ -6562,9 +6585,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G79" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B79,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="1" t="str">
@@ -6591,9 +6614,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G80" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B80,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H80" s="6" t="e">
         <f t="shared" ref="H80:H129" si="3">IF(AND(C80="Y",G80&lt;F80),-100,0)</f>
@@ -6625,9 +6648,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G81" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B81,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="1" t="str">
@@ -6654,9 +6677,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G82" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B82,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="1" t="str">
@@ -6683,13 +6706,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G83" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B83,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
-      </c>
-      <c r="H83" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H83" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I83" s="1" t="str">
         <f>VLOOKUP(B83,[1]底薪计算!D:D,1,FALSE)</f>
@@ -6715,13 +6738,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G84" s="5">
+      <c r="G84" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B84,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
-      </c>
-      <c r="H84" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H84" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I84" s="1" t="str">
         <f>VLOOKUP(B84,[1]底薪计算!D:D,1,FALSE)</f>
@@ -6749,9 +6772,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G85" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B85,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="1" t="str">
@@ -6778,9 +6801,9 @@
         <f>IF(AND(D86="直销",C86="Y"),1,IF(AND(D86="一体化",E86&lt;&gt;" "),0,IF(AND(D86="一体化",EC2986="Y"),1,0)))</f>
         <v>0</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G86" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B86,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="1" t="str">
@@ -6807,9 +6830,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G87" s="5">
+      <c r="G87" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B87,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="1" t="str">
@@ -6836,9 +6859,9 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G88" s="5">
+      <c r="G88" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B88,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H88" s="6" t="e">
         <f t="shared" si="3"/>
@@ -6868,13 +6891,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G89" s="5">
+      <c r="G89" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B89,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
-      </c>
-      <c r="H89" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H89" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I89" s="1" t="str">
         <f>VLOOKUP(B89,[1]底薪计算!D:D,1,FALSE)</f>
@@ -6902,13 +6925,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G90" s="5">
+      <c r="G90" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B90,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
-      </c>
-      <c r="H90" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H90" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I90" s="1" t="str">
         <f>VLOOKUP(B90,[1]底薪计算!D:D,1,FALSE)</f>
@@ -6936,13 +6959,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G91" s="5">
+      <c r="G91" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B91,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
-      </c>
-      <c r="H91" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H91" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I91" s="1" t="str">
         <f>VLOOKUP(B91,[1]底薪计算!D:D,1,FALSE)</f>
@@ -6970,13 +6993,13 @@
         <f>IF(AND(D92="直销",C92="Y"),1,IF(AND(D92="一体化",E92&lt;&gt;" "),0,IF(AND(D92="一体化",EC2992="Y"),1,0)))</f>
         <v>0</v>
       </c>
-      <c r="G92" s="5">
+      <c r="G92" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B92,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
-      </c>
-      <c r="H92" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H92" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I92" s="1" t="str">
         <f>VLOOKUP(B92,[1]底薪计算!D:D,1,FALSE)</f>
@@ -7002,13 +7025,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G93" s="5">
+      <c r="G93" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B93,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
-      </c>
-      <c r="H93" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H93" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I93" s="1" t="str">
         <f>VLOOKUP(B93,[1]底薪计算!D:D,1,FALSE)</f>
@@ -7036,9 +7059,9 @@
         <f t="shared" ref="F94" si="4">IF(AND(D94="直销",C94="Y"),1,IF(AND(D94="一体化",E94&lt;&gt;" "),0,IF(AND(D94="一体化",EC2994="Y"),1,0)))</f>
         <v>1</v>
       </c>
-      <c r="G94" s="5">
+      <c r="G94" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B94,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H94" s="6"/>
       <c r="I94" s="1" t="str">
@@ -7067,13 +7090,13 @@
         <f>IF(AND(D95="直销",C95="Y"),1,IF(AND(D95="一体化",E95&lt;&gt;" "),0,IF(AND(D95="一体化",EC2995="Y"),1,0)))</f>
         <v>0</v>
       </c>
-      <c r="G95" s="5">
+      <c r="G95" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B95,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
-      </c>
-      <c r="H95" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H95" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I95" s="1" t="str">
         <f>VLOOKUP(B95,[1]底薪计算!D:D,1,FALSE)</f>
@@ -7101,9 +7124,9 @@
         <f t="shared" ref="F96:F156" si="5">IF(AND(D96="直销",C96="Y"),1,IF(AND(D96="一体化",E96&lt;&gt;" "),0,IF(AND(D96="一体化",EC2996="Y"),1,0)))</f>
         <v>1</v>
       </c>
-      <c r="G96" s="5">
+      <c r="G96" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B96,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="1" t="str">
@@ -7132,9 +7155,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G97" s="5">
+      <c r="G97" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B97,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="1" t="str">
@@ -7163,9 +7186,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G98" s="5">
+      <c r="G98" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B98,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H98" s="6"/>
       <c r="I98" s="1" t="str">
@@ -7194,9 +7217,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G99" s="5">
+      <c r="G99" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B99,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H99" s="6"/>
       <c r="I99" s="1" t="str">
@@ -7225,13 +7248,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G100" s="5">
+      <c r="G100" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B100,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
-      </c>
-      <c r="H100" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H100" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I100" s="1" t="str">
         <f>VLOOKUP(B100,[1]底薪计算!D:D,1,FALSE)</f>
@@ -7259,9 +7282,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G101" s="5">
+      <c r="G101" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B101,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H101" s="6"/>
       <c r="I101" s="1" t="str">
@@ -7290,9 +7313,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G102" s="5">
+      <c r="G102" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B102,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H102" s="6"/>
       <c r="I102" s="1" t="str">
@@ -7321,13 +7344,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G103" s="5">
+      <c r="G103" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B103,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
-      </c>
-      <c r="H103" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H103" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I103" s="1" t="str">
         <f>VLOOKUP(B103,[1]底薪计算!D:D,1,FALSE)</f>
@@ -7355,13 +7378,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G104" s="5">
+      <c r="G104" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B104,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
-      </c>
-      <c r="H104" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H104" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I104" s="1" t="str">
         <f>VLOOKUP(B104,[1]底薪计算!D:D,1,FALSE)</f>
@@ -7389,9 +7412,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G105" s="5">
+      <c r="G105" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B105,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H105" s="6"/>
       <c r="I105" s="1" t="str">
@@ -7418,9 +7441,9 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G106" s="5">
+      <c r="G106" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B106,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H106" s="6"/>
       <c r="I106" s="1" t="e">
@@ -7449,13 +7472,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G107" s="5">
+      <c r="G107" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B107,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
-      </c>
-      <c r="H107" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H107" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I107" s="1" t="str">
         <f>VLOOKUP(B107,[1]底薪计算!D:D,1,FALSE)</f>
@@ -7483,13 +7506,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G108" s="5">
+      <c r="G108" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B108,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
-      </c>
-      <c r="H108" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H108" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I108" s="1" t="str">
         <f>VLOOKUP(B108,[1]底薪计算!D:D,1,FALSE)</f>
@@ -7517,13 +7540,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G109" s="5">
+      <c r="G109" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B109,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
-      </c>
-      <c r="H109" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H109" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I109" s="1" t="str">
         <f>VLOOKUP(B109,[1]底薪计算!D:D,1,FALSE)</f>
@@ -7549,13 +7572,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G110" s="5">
+      <c r="G110" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B110,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
-      </c>
-      <c r="H110" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H110" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I110" s="1" t="str">
         <f>VLOOKUP(B110,[1]底薪计算!D:D,1,FALSE)</f>
@@ -7583,13 +7606,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G111" s="5">
+      <c r="G111" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B111,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
-      </c>
-      <c r="H111" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H111" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I111" s="1" t="str">
         <f>VLOOKUP(B111,[1]底薪计算!D:D,1,FALSE)</f>
@@ -7617,13 +7640,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G112" s="5">
+      <c r="G112" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B112,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
-      </c>
-      <c r="H112" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H112" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I112" s="1" t="str">
         <f>VLOOKUP(B112,[1]底薪计算!D:D,1,FALSE)</f>
@@ -7649,13 +7672,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G113" s="5">
+      <c r="G113" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B113,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
-      </c>
-      <c r="H113" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H113" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I113" s="1" t="str">
         <f>VLOOKUP(B113,[1]底薪计算!D:D,1,FALSE)</f>
@@ -7683,13 +7706,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G114" s="5">
+      <c r="G114" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B114,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
-      </c>
-      <c r="H114" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H114" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I114" s="1" t="str">
         <f>VLOOKUP(B114,[1]底薪计算!D:D,1,FALSE)</f>
@@ -7715,13 +7738,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G115" s="5">
+      <c r="G115" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B115,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
-      </c>
-      <c r="H115" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H115" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I115" s="1" t="str">
         <f>VLOOKUP(B115,[1]底薪计算!D:D,1,FALSE)</f>
@@ -7749,13 +7772,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G116" s="5">
+      <c r="G116" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B116,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
-      </c>
-      <c r="H116" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H116" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I116" s="1" t="str">
         <f>VLOOKUP(B116,[1]底薪计算!D:D,1,FALSE)</f>
@@ -7783,13 +7806,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G117" s="5">
+      <c r="G117" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B117,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
-      </c>
-      <c r="H117" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H117" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I117" s="1" t="str">
         <f>VLOOKUP(B117,[1]底薪计算!D:D,1,FALSE)</f>
@@ -7817,13 +7840,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G118" s="5">
+      <c r="G118" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B118,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
-      </c>
-      <c r="H118" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H118" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I118" s="1" t="str">
         <f>VLOOKUP(B118,[1]底薪计算!D:D,1,FALSE)</f>
@@ -7849,13 +7872,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G119" s="5">
+      <c r="G119" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B119,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
-      </c>
-      <c r="H119" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H119" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I119" s="1" t="str">
         <f>VLOOKUP(B119,[1]底薪计算!D:D,1,FALSE)</f>
@@ -7881,13 +7904,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G120" s="5">
+      <c r="G120" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B120,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
-      </c>
-      <c r="H120" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H120" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I120" s="1" t="str">
         <f>VLOOKUP(B120,[1]底薪计算!D:D,1,FALSE)</f>
@@ -7913,9 +7936,9 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G121" s="5">
+      <c r="G121" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B121,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H121" s="6" t="e">
         <f t="shared" si="3"/>
@@ -7945,9 +7968,9 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G122" s="5">
+      <c r="G122" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B122,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H122" s="6" t="e">
         <f t="shared" si="3"/>
@@ -7977,13 +8000,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G123" s="5">
+      <c r="G123" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B123,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
-      </c>
-      <c r="H123" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H123" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I123" s="1" t="str">
         <f>VLOOKUP(B123,[1]底薪计算!D:D,1,FALSE)</f>
@@ -8009,13 +8032,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G124" s="5">
+      <c r="G124" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B124,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
-      </c>
-      <c r="H124" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H124" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I124" s="1" t="str">
         <f>VLOOKUP(B124,[1]底薪计算!D:D,1,FALSE)</f>
@@ -8041,13 +8064,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G125" s="5">
+      <c r="G125" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B125,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
-      </c>
-      <c r="H125" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H125" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I125" s="1" t="str">
         <f>VLOOKUP(B125,[1]底薪计算!D:D,1,FALSE)</f>
@@ -8073,9 +8096,9 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G126" s="5">
+      <c r="G126" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B126,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H126" s="6" t="e">
         <f t="shared" si="3"/>
@@ -8105,13 +8128,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G127" s="5">
+      <c r="G127" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B127,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
-      </c>
-      <c r="H127" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H127" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I127" s="1" t="str">
         <f>VLOOKUP(B127,[1]底薪计算!D:D,1,FALSE)</f>
@@ -8137,9 +8160,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G128" s="5">
+      <c r="G128" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B128,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H128" s="6"/>
       <c r="I128" s="1" t="str">
@@ -8166,13 +8189,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G129" s="5">
+      <c r="G129" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B129,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>0</v>
-      </c>
-      <c r="H129" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H129" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I129" s="1" t="str">
         <f>VLOOKUP(B129,[1]底薪计算!D:D,1,FALSE)</f>
@@ -8198,9 +8221,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G130" s="5">
+      <c r="G130" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B130,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H130" s="6"/>
       <c r="I130" s="1" t="str">
@@ -8227,9 +8250,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G131" s="5">
+      <c r="G131" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B131,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H131" s="6"/>
       <c r="I131" s="1" t="str">
@@ -8256,9 +8279,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G132" s="5">
+      <c r="G132" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B132,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H132" s="6"/>
       <c r="I132" s="1" t="str">
@@ -8285,9 +8308,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G133" s="5">
+      <c r="G133" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B133,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H133" s="6"/>
       <c r="I133" s="1" t="str">
@@ -8314,13 +8337,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G134" s="5">
+      <c r="G134" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B134,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
-      </c>
-      <c r="H134" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H134" s="6" t="e">
         <f t="shared" ref="H134:H154" si="6">IF(AND(C134="Y",G134&lt;F134),-100,0)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I134" s="1" t="str">
         <f>VLOOKUP(B134,[1]底薪计算!D:D,1,FALSE)</f>
@@ -8346,9 +8369,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G135" s="5">
+      <c r="G135" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B135,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H135" s="6"/>
       <c r="I135" s="1" t="str">
@@ -8375,9 +8398,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G136" s="5">
+      <c r="G136" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B136,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H136" s="6"/>
       <c r="I136" s="1" t="str">
@@ -8404,13 +8427,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G137" s="5">
+      <c r="G137" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B137,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
-      </c>
-      <c r="H137" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H137" s="6" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I137" s="1" t="str">
         <f>VLOOKUP(B137,[1]底薪计算!D:D,1,FALSE)</f>
@@ -8436,9 +8459,9 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G138" s="5">
+      <c r="G138" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B138,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H138" s="6"/>
       <c r="I138" s="1" t="e">
@@ -8465,13 +8488,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G139" s="5">
+      <c r="G139" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B139,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
-      </c>
-      <c r="H139" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H139" s="6" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I139" s="1" t="str">
         <f>VLOOKUP(B139,[1]底薪计算!D:D,1,FALSE)</f>
@@ -8497,9 +8520,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G140" s="5">
+      <c r="G140" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B140,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H140" s="6"/>
       <c r="I140" s="1" t="str">
@@ -8526,9 +8549,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G141" s="5">
+      <c r="G141" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B141,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H141" s="6"/>
       <c r="I141" s="1" t="str">
@@ -8555,9 +8578,9 @@
         <f>IF(AND(D142="直销",C142="Y"),1,IF(AND(D142="一体化",E142&lt;&gt;" "),0,IF(AND(D142="一体化",EC3042="Y"),1,0)))</f>
         <v>0</v>
       </c>
-      <c r="G142" s="5">
+      <c r="G142" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B142,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H142" s="6"/>
       <c r="I142" s="1" t="str">
@@ -8584,13 +8607,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G143" s="5">
+      <c r="G143" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B143,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
-      </c>
-      <c r="H143" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H143" s="6" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I143" s="1" t="str">
         <f>VLOOKUP(B143,[1]底薪计算!D:D,1,FALSE)</f>
@@ -8616,9 +8639,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G144" s="5">
+      <c r="G144" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B144,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H144" s="6"/>
       <c r="I144" s="1" t="str">
@@ -8645,9 +8668,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G145" s="5">
+      <c r="G145" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B145,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H145" s="6"/>
       <c r="I145" s="1" t="str">
@@ -8674,9 +8697,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G146" s="5">
+      <c r="G146" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B146,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H146" s="6"/>
       <c r="I146" s="1" t="str">
@@ -8705,13 +8728,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G147" s="5">
+      <c r="G147" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B147,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
-      </c>
-      <c r="H147" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H147" s="6" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I147" s="1" t="str">
         <f>VLOOKUP(B147,[1]底薪计算!D:D,1,FALSE)</f>
@@ -8737,9 +8760,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G148" s="5">
+      <c r="G148" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B148,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H148" s="6"/>
       <c r="I148" s="1" t="str">
@@ -8766,9 +8789,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G149" s="5">
+      <c r="G149" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B149,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H149" s="6"/>
       <c r="I149" s="1" t="str">
@@ -8795,9 +8818,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G150" s="5">
+      <c r="G150" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B150,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H150" s="6"/>
       <c r="I150" s="1" t="str">
@@ -8824,13 +8847,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G151" s="5">
+      <c r="G151" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B151,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
-      </c>
-      <c r="H151" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H151" s="6" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I151" s="1" t="str">
         <f>VLOOKUP(B151,[1]底薪计算!D:D,1,FALSE)</f>
@@ -8856,9 +8879,9 @@
         <f>IF(AND(D152="直销",C152="Y"),1,IF(AND(D152="一体化",E152&lt;&gt;" "),0,IF(AND(D152="一体化",EC3052="Y"),1,0)))</f>
         <v>0</v>
       </c>
-      <c r="G152" s="5">
+      <c r="G152" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B152,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H152" s="6"/>
       <c r="I152" s="1" t="str">
@@ -8885,13 +8908,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G153" s="5">
+      <c r="G153" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B153,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
-      </c>
-      <c r="H153" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H153" s="6" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I153" s="1" t="str">
         <f>VLOOKUP(B153,[1]底薪计算!D:D,1,FALSE)</f>
@@ -8917,13 +8940,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G154" s="5">
+      <c r="G154" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B154,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
-      </c>
-      <c r="H154" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H154" s="6" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I154" s="1" t="str">
         <f>VLOOKUP(B154,[1]底薪计算!D:D,1,FALSE)</f>
@@ -8949,9 +8972,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G155" s="5">
+      <c r="G155" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B155,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H155" s="6"/>
       <c r="I155" s="1" t="str">
@@ -8978,9 +9001,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G156" s="5">
+      <c r="G156" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B156,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H156" s="6"/>
       <c r="I156" s="1" t="str">
@@ -9001,7 +9024,8 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/webapp/download/集团客户考核.xlsx
+++ b/src/main/webapp/download/集团客户考核.xlsx
@@ -13,7 +13,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">集团客户考核!$A$2:$I$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">集团客户考核!$A$1:$I$155</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -25,7 +25,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,46 +55,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="244">
-  <si>
-    <t>5月集团客户考核(2个月做一次考核)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月是做4-5月的集团客户汇总考核</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="242">
   <si>
     <t>区</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>直销人员</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>入职年限</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>所属类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>所属网格</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>集团客户任务</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>集团客户发展数数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>考核金额（IF(AND(C3="Y",G3&lt;F3),-100,0)）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>茶山区</t>
@@ -803,7 +795,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -823,13 +815,6 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -898,21 +883,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -937,37 +913,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4178,12 +4151,12 @@
   <sheetPr filterMode="1">
     <tabColor indexed="14"/>
   </sheetPr>
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M24" sqref="M24"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4199,139 +4172,155 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="41.25" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="C2" s="4" t="e">
+        <f>VLOOKUP(B2,[1]底薪计算!D:I,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="e">
+        <f t="shared" ref="F2:F27" si="0">IF(AND(D2="直销",C2="Y"),1,IF(AND(D2="一体化",E2&lt;&gt;" "),0,IF(AND(D2="一体化",EC2902="Y"),1,0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G2" s="5" t="e">
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B2,'[1]4-5月集团客户明细'!P:P)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="1" t="e">
+        <f>VLOOKUP(B2,[1]底薪计算!D:D,1,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="e">
+      <c r="C3" s="4" t="str">
         <f>VLOOKUP(B3,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>#N/A</v>
+        <v>Y</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5" t="e">
-        <f t="shared" ref="F3:F28" si="0">IF(AND(D3="直销",C3="Y"),1,IF(AND(D3="一体化",E3&lt;&gt;" "),0,IF(AND(D3="一体化",EC2903="Y"),1,0)))</f>
-        <v>#N/A</v>
+      <c r="F3" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G3" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B3,'[1]4-5月集团客户明细'!P:P)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="1" t="e">
+      <c r="I3" s="1" t="str">
         <f>VLOOKUP(B3,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>覃绪炽</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="e">
+        <f>VLOOKUP(B4,[1]底薪计算!D:I,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G4" s="5" t="e">
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B4,'[1]4-5月集团客户明细'!P:P)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="1" t="e">
+        <f>VLOOKUP(B4,[1]底薪计算!D:D,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="str">
-        <f>VLOOKUP(B4,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>Y</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f>VLOOKUP(B5,[1]底薪计算!D:I,6,FALSE)</f>
+        <v>Y</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B4,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="1" t="str">
-        <f>VLOOKUP(B4,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>覃绪炽</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="e">
-        <f>VLOOKUP(B5,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
       <c r="G5" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B5,'[1]4-5月集团客户明细'!P:P)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="1" t="e">
+      <c r="I5" s="1" t="str">
         <f>VLOOKUP(B5,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>邓轩腾</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>17</v>
@@ -4341,10 +4330,10 @@
         <v>Y</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
@@ -4357,25 +4346,25 @@
       <c r="H6" s="6"/>
       <c r="I6" s="1" t="str">
         <f>VLOOKUP(B6,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>邓轩腾</v>
+        <v>邓轩物</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="str">
         <f>VLOOKUP(B7,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
@@ -4388,25 +4377,25 @@
       <c r="H7" s="6"/>
       <c r="I7" s="1" t="str">
         <f>VLOOKUP(B7,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>邓轩物</v>
+        <v>符关卓</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="str">
         <f>VLOOKUP(B8,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
@@ -4419,12 +4408,12 @@
       <c r="H8" s="6"/>
       <c r="I8" s="1" t="str">
         <f>VLOOKUP(B8,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>符关卓</v>
+        <v>刘运超</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>21</v>
@@ -4434,10 +4423,10 @@
         <v>Y</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
@@ -4450,25 +4439,25 @@
       <c r="H9" s="6"/>
       <c r="I9" s="1" t="str">
         <f>VLOOKUP(B9,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>刘运超</v>
+        <v>全守平</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4" t="str">
         <f>VLOOKUP(B10,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
@@ -4481,12 +4470,12 @@
       <c r="H10" s="6"/>
       <c r="I10" s="1" t="str">
         <f>VLOOKUP(B10,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>全守平</v>
+        <v>唐石荣</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>24</v>
@@ -4496,28 +4485,28 @@
         <v>Y</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G11" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B11,'[1]4-5月集团客户明细'!P:P)</f>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B11,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="1" t="str">
         <f>VLOOKUP(B11,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>唐石荣</v>
+        <v>李永林</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>26</v>
@@ -4527,28 +4516,28 @@
         <v>Y</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G12" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B12,'[1]4-5月集团客户明细'!N:N)</f>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B12,'[1]4-5月集团客户明细'!P:P)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="1" t="str">
         <f>VLOOKUP(B12,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>李永林</v>
+        <v>伍宜勇</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>28</v>
@@ -4558,7 +4547,7 @@
         <v>Y</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>29</v>
@@ -4574,25 +4563,25 @@
       <c r="H13" s="6"/>
       <c r="I13" s="1" t="str">
         <f>VLOOKUP(B13,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>伍宜勇</v>
+        <v>刘建强</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="4" t="str">
         <f>VLOOKUP(B14,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
@@ -4605,12 +4594,12 @@
       <c r="H14" s="6"/>
       <c r="I14" s="1" t="str">
         <f>VLOOKUP(B14,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>刘建强</v>
+        <v>蓝志坚</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>33</v>
@@ -4620,7 +4609,7 @@
         <v>Y</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>34</v>
@@ -4636,72 +4625,72 @@
       <c r="H15" s="6"/>
       <c r="I15" s="1" t="str">
         <f>VLOOKUP(B15,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>蓝志坚</v>
+        <v>蓝志康</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="4" t="str">
+      <c r="C16" s="4" t="e">
         <f>VLOOKUP(B16,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>Y</v>
+        <v>#N/A</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G16" s="5" t="e">
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B16,'[1]4-5月集团客户明细'!P:P)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="1" t="e">
+        <f>VLOOKUP(B16,[1]底薪计算!D:D,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="5">
+      <c r="B17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f>VLOOKUP(B17,[1]底薪计算!D:I,6,FALSE)</f>
+        <v>Y</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G16" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B16,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="1" t="str">
-        <f>VLOOKUP(B16,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>蓝志康</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="4" t="e">
-        <f>VLOOKUP(B17,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
       <c r="G17" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B17,'[1]4-5月集团客户明细'!P:P)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="1" t="e">
+      <c r="I17" s="1" t="str">
         <f>VLOOKUP(B17,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>欧仁</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>39</v>
@@ -4711,7 +4700,7 @@
         <v>Y</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>40</v>
@@ -4727,12 +4716,12 @@
       <c r="H18" s="6"/>
       <c r="I18" s="1" t="str">
         <f>VLOOKUP(B18,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>欧仁</v>
+        <v>杨维邦</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>41</v>
@@ -4742,7 +4731,7 @@
         <v>Y</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>42</v>
@@ -4758,12 +4747,12 @@
       <c r="H19" s="6"/>
       <c r="I19" s="1" t="str">
         <f>VLOOKUP(B19,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>杨维邦</v>
+        <v>周国强</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>43</v>
@@ -4773,7 +4762,7 @@
         <v>Y</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>44</v>
@@ -4789,12 +4778,12 @@
       <c r="H20" s="6"/>
       <c r="I20" s="1" t="str">
         <f>VLOOKUP(B20,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>周国强</v>
+        <v>左小兵</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>45</v>
@@ -4804,28 +4793,28 @@
         <v>Y</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G21" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B21,'[1]4-5月集团客户明细'!P:P)</f>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B21,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="1" t="str">
         <f>VLOOKUP(B21,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>左小兵</v>
+        <v>邓逢善</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>47</v>
@@ -4835,23 +4824,23 @@
         <v>Y</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G22" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B22,'[1]4-5月集团客户明细'!N:N)</f>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B22,'[1]4-5月集团客户明细'!P:P)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="1" t="str">
         <f>VLOOKUP(B22,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>邓逢善</v>
+        <v>黎广法</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4866,10 +4855,10 @@
         <v>Y</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="0"/>
@@ -4882,25 +4871,25 @@
       <c r="H23" s="6"/>
       <c r="I23" s="1" t="str">
         <f>VLOOKUP(B23,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>黎广法</v>
+        <v>肖任</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>VLOOKUP(B24,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="0"/>
@@ -4913,12 +4902,12 @@
       <c r="H24" s="6"/>
       <c r="I24" s="1" t="str">
         <f>VLOOKUP(B24,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>肖任</v>
+        <v>曾茂林</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>54</v>
@@ -4928,7 +4917,7 @@
         <v>Y</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>55</v>
@@ -4944,12 +4933,12 @@
       <c r="H25" s="6"/>
       <c r="I25" s="1" t="str">
         <f>VLOOKUP(B25,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>曾茂林</v>
+        <v>温圣荣</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>56</v>
@@ -4959,7 +4948,7 @@
         <v>Y</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>57</v>
@@ -4975,12 +4964,12 @@
       <c r="H26" s="6"/>
       <c r="I26" s="1" t="str">
         <f>VLOOKUP(B26,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>温圣荣</v>
+        <v>易荣辉</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>58</v>
@@ -4990,7 +4979,7 @@
         <v>Y</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>59</v>
@@ -5006,106 +4995,106 @@
       <c r="H27" s="6"/>
       <c r="I27" s="1" t="str">
         <f>VLOOKUP(B27,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>易荣辉</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>罗灿平</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" hidden="1">
       <c r="A28" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="4" t="str">
         <f>VLOOKUP(B28,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(AND(D28="直销",C28="Y"),1,IF(AND(D28="一体化",E28&lt;&gt;" "),0,IF(AND(D28="一体化",EC2928="Y"),1,0)))</f>
+        <v>0</v>
       </c>
       <c r="G28" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B28,'[1]4-5月集团客户明细'!P:P)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H28" s="6"/>
+      <c r="H28" s="6" t="e">
+        <f t="shared" ref="H28:H66" si="1">IF(AND(C28="Y",G28&lt;F28),-100,0)</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="I28" s="1" t="str">
         <f>VLOOKUP(B28,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>罗灿平</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" hidden="1">
+        <v>罗灿坤</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="4" t="str">
+        <v>65</v>
+      </c>
+      <c r="C29" s="4" t="e">
         <f>VLOOKUP(B29,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>Y</v>
+        <v>#N/A</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="5">
-        <f>IF(AND(D29="直销",C29="Y"),1,IF(AND(D29="一体化",E29&lt;&gt;" "),0,IF(AND(D29="一体化",EC2929="Y"),1,0)))</f>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5" t="e">
+        <f t="shared" ref="F29:F92" si="2">IF(AND(D29="直销",C29="Y"),1,IF(AND(D29="一体化",E29&lt;&gt;" "),0,IF(AND(D29="一体化",EC2929="Y"),1,0)))</f>
+        <v>#N/A</v>
       </c>
       <c r="G29" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B29,'[1]4-5月集团客户明细'!P:P)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H29" s="6" t="e">
-        <f t="shared" ref="H29:H67" si="1">IF(AND(C29="Y",G29&lt;F29),-100,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I29" s="1" t="str">
+      <c r="H29" s="6"/>
+      <c r="I29" s="1" t="e">
         <f>VLOOKUP(B29,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>罗灿坤</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="4" t="e">
+      <c r="C30" s="4" t="str">
         <f>VLOOKUP(B30,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>#N/A</v>
+        <v>Y</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5" t="e">
-        <f t="shared" ref="F30:F93" si="2">IF(AND(D30="直销",C30="Y"),1,IF(AND(D30="一体化",E30&lt;&gt;" "),0,IF(AND(D30="一体化",EC2930="Y"),1,0)))</f>
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="G30" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B30,'[1]4-5月集团客户明细'!P:P)</f>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B30,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H30" s="6"/>
-      <c r="I30" s="1" t="e">
+      <c r="I30" s="1" t="str">
         <f>VLOOKUP(B30,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>郑廷碧</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>68</v>
@@ -5115,28 +5104,28 @@
         <v>Y</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G31" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B31,'[1]4-5月集团客户明细'!N:N)</f>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B31,'[1]4-5月集团客户明细'!P:P)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="1" t="str">
         <f>VLOOKUP(B31,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>郑廷碧</v>
+        <v>黄维劲</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>70</v>
@@ -5146,7 +5135,7 @@
         <v>Y</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>71</v>
@@ -5162,12 +5151,12 @@
       <c r="H32" s="6"/>
       <c r="I32" s="1" t="str">
         <f>VLOOKUP(B32,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>黄维劲</v>
+        <v>李宇飞</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>72</v>
@@ -5177,10 +5166,10 @@
         <v>Y</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F33" s="5">
         <f t="shared" si="2"/>
@@ -5193,12 +5182,12 @@
       <c r="H33" s="6"/>
       <c r="I33" s="1" t="str">
         <f>VLOOKUP(B33,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>李宇飞</v>
+        <v>钟宝明</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>74</v>
@@ -5208,7 +5197,7 @@
         <v>Y</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>73</v>
@@ -5224,7 +5213,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="1" t="str">
         <f>VLOOKUP(B34,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>钟宝明</v>
+        <v>黎广俊</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -5239,10 +5228,10 @@
         <v>Y</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F35" s="5">
         <f t="shared" si="2"/>
@@ -5255,12 +5244,12 @@
       <c r="H35" s="6"/>
       <c r="I35" s="1" t="str">
         <f>VLOOKUP(B35,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>黎广俊</v>
+        <v>何奇宝</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>78</v>
@@ -5270,7 +5259,7 @@
         <v>Y</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>79</v>
@@ -5286,12 +5275,12 @@
       <c r="H36" s="6"/>
       <c r="I36" s="1" t="str">
         <f>VLOOKUP(B36,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>何奇宝</v>
+        <v>吴宇帅</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>80</v>
@@ -5301,10 +5290,10 @@
         <v>Y</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" si="2"/>
@@ -5317,12 +5306,12 @@
       <c r="H37" s="6"/>
       <c r="I37" s="1" t="str">
         <f>VLOOKUP(B37,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>吴宇帅</v>
+        <v>禹红娜</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>82</v>
@@ -5332,10 +5321,10 @@
         <v>Y</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" si="2"/>
@@ -5348,25 +5337,25 @@
       <c r="H38" s="6"/>
       <c r="I38" s="1" t="str">
         <f>VLOOKUP(B38,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>禹红娜</v>
+        <v>张国舜</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" s="4" t="str">
         <f>VLOOKUP(B39,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" si="2"/>
@@ -5379,116 +5368,116 @@
       <c r="H39" s="6"/>
       <c r="I39" s="1" t="str">
         <f>VLOOKUP(B39,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>张国舜</v>
+        <v>李先富</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="4" t="str">
+      <c r="C40" s="4" t="e">
         <f>VLOOKUP(B40,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>Y</v>
+        <v>#N/A</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G40" s="5" t="e">
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B40,'[1]4-5月集团客户明细'!P:P)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="1" t="e">
+        <f>VLOOKUP(B40,[1]底薪计算!D:D,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F40" s="5">
+      <c r="C41" s="4" t="str">
+        <f>VLOOKUP(B41,[1]底薪计算!D:I,6,FALSE)</f>
+        <v>Y</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G40" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B40,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="1" t="str">
-        <f>VLOOKUP(B40,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>李先富</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="4" t="e">
-        <f>VLOOKUP(B41,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="5" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
       <c r="G41" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B41,'[1]4-5月集团客户明细'!P:P)</f>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B41,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H41" s="6"/>
-      <c r="I41" s="1" t="e">
+      <c r="I41" s="1" t="str">
         <f>VLOOKUP(B41,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>黄维敏</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C42" s="4" t="str">
         <f>VLOOKUP(B42,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G42" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B42,'[1]4-5月集团客户明细'!N:N)</f>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B42,'[1]4-5月集团客户明细'!P:P)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="1" t="str">
         <f>VLOOKUP(B42,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>黄维敏</v>
+        <v>夏玉杰</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C43" s="4" t="str">
         <f>VLOOKUP(B43,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F43" s="5">
         <f t="shared" si="2"/>
@@ -5501,12 +5490,12 @@
       <c r="H43" s="6"/>
       <c r="I43" s="1" t="str">
         <f>VLOOKUP(B43,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>夏玉杰</v>
+        <v>陈阳</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>94</v>
@@ -5516,7 +5505,7 @@
         <v>Y</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>95</v>
@@ -5532,12 +5521,12 @@
       <c r="H44" s="6"/>
       <c r="I44" s="1" t="str">
         <f>VLOOKUP(B44,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>陈阳</v>
+        <v>何攀</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>96</v>
@@ -5547,7 +5536,7 @@
         <v>Y</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>97</v>
@@ -5563,12 +5552,12 @@
       <c r="H45" s="6"/>
       <c r="I45" s="1" t="str">
         <f>VLOOKUP(B45,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>何攀</v>
+        <v>杨芳</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>98</v>
@@ -5578,7 +5567,7 @@
         <v>Y</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>99</v>
@@ -5588,18 +5577,18 @@
         <v>1</v>
       </c>
       <c r="G46" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B46,'[1]4-5月集团客户明细'!P:P)</f>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B46,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="1" t="str">
         <f>VLOOKUP(B46,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>杨芳</v>
+        <v>陈炳亮</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>100</v>
@@ -5609,28 +5598,28 @@
         <v>Y</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F47" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G47" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B47,'[1]4-5月集团客户明细'!N:N)</f>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B47,'[1]4-5月集团客户明细'!P:P)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="1" t="str">
         <f>VLOOKUP(B47,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>陈炳亮</v>
+        <v>张远威</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>102</v>
@@ -5640,10 +5629,10 @@
         <v>Y</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F48" s="5">
         <f t="shared" si="2"/>
@@ -5656,12 +5645,12 @@
       <c r="H48" s="6"/>
       <c r="I48" s="1" t="str">
         <f>VLOOKUP(B48,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>张远威</v>
+        <v>李明浪</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>104</v>
@@ -5671,10 +5660,10 @@
         <v>Y</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F49" s="5">
         <f t="shared" si="2"/>
@@ -5687,72 +5676,70 @@
       <c r="H49" s="6"/>
       <c r="I49" s="1" t="str">
         <f>VLOOKUP(B49,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>李明浪</v>
+        <v>肖俊标</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="4" t="e">
+        <f>VLOOKUP(B50,[1]底薪计算!D:I,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G50" s="5" t="e">
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B50,'[1]4-5月集团客户明细'!P:P)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="1" t="e">
+        <f>VLOOKUP(B50,[1]底薪计算!D:D,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="4" t="str">
-        <f>VLOOKUP(B50,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>Y</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F50" s="5">
+      <c r="C51" s="4" t="str">
+        <f>VLOOKUP(B51,[1]底薪计算!D:I,6,FALSE)</f>
+        <v>Y</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G50" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B50,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="1" t="str">
-        <f>VLOOKUP(B50,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>肖俊标</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" s="4" t="e">
-        <f>VLOOKUP(B51,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="5" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
       <c r="G51" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B51,'[1]4-5月集团客户明细'!P:P)</f>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B51,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H51" s="6"/>
-      <c r="I51" s="1" t="e">
+      <c r="I51" s="1" t="str">
         <f>VLOOKUP(B51,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>邹阳</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>108</v>
@@ -5762,26 +5749,28 @@
         <v>Y</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="F52" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G52" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B52,'[1]4-5月集团客户明细'!N:N)</f>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B52,'[1]4-5月集团客户明细'!P:P)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="1" t="str">
         <f>VLOOKUP(B52,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>邹阳</v>
+        <v>林建光</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>110</v>
@@ -5791,7 +5780,7 @@
         <v>Y</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>111</v>
@@ -5807,12 +5796,12 @@
       <c r="H53" s="6"/>
       <c r="I53" s="1" t="str">
         <f>VLOOKUP(B53,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>林建光</v>
+        <v>钟环荣</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>112</v>
@@ -5822,10 +5811,10 @@
         <v>Y</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F54" s="5">
         <f t="shared" si="2"/>
@@ -5838,12 +5827,12 @@
       <c r="H54" s="6"/>
       <c r="I54" s="1" t="str">
         <f>VLOOKUP(B54,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>钟环荣</v>
+        <v>周启存</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>114</v>
@@ -5853,10 +5842,10 @@
         <v>Y</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F55" s="5">
         <f t="shared" si="2"/>
@@ -5869,12 +5858,12 @@
       <c r="H55" s="6"/>
       <c r="I55" s="1" t="str">
         <f>VLOOKUP(B55,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>周启存</v>
+        <v>万昌波</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>116</v>
@@ -5884,7 +5873,7 @@
         <v>Y</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>117</v>
@@ -5900,25 +5889,25 @@
       <c r="H56" s="6"/>
       <c r="I56" s="1" t="str">
         <f>VLOOKUP(B56,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>万昌波</v>
+        <v>伍红军</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C57" s="4" t="str">
         <f>VLOOKUP(B57,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F57" s="5">
         <f t="shared" si="2"/>
@@ -5931,12 +5920,12 @@
       <c r="H57" s="6"/>
       <c r="I57" s="1" t="str">
         <f>VLOOKUP(B57,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>伍红军</v>
+        <v>何乐平</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>121</v>
@@ -5946,7 +5935,7 @@
         <v>Y</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>122</v>
@@ -5962,12 +5951,12 @@
       <c r="H58" s="6"/>
       <c r="I58" s="1" t="str">
         <f>VLOOKUP(B58,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>何乐平</v>
+        <v>肖亮</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>123</v>
@@ -5977,7 +5966,7 @@
         <v>Y</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>124</v>
@@ -5987,18 +5976,18 @@
         <v>1</v>
       </c>
       <c r="G59" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B59,'[1]4-5月集团客户明细'!P:P)</f>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B59,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="1" t="str">
         <f>VLOOKUP(B59,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>肖亮</v>
+        <v>许世家</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>125</v>
@@ -6008,7 +5997,7 @@
         <v>Y</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>126</v>
@@ -6018,109 +6007,109 @@
         <v>1</v>
       </c>
       <c r="G60" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B60,'[1]4-5月集团客户明细'!N:N)</f>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B60,'[1]4-5月集团客户明细'!P:P)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="1" t="str">
         <f>VLOOKUP(B60,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>许世家</v>
+        <v>朱江益</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="4" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="4" t="str">
+      <c r="C61" s="4" t="e">
         <f>VLOOKUP(B61,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>Y</v>
+        <v>#N/A</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G61" s="5" t="e">
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B61,'[1]4-5月集团客户明细'!P:P)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H61" s="6"/>
+      <c r="I61" s="1" t="e">
+        <f>VLOOKUP(B61,[1]底薪计算!D:D,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F61" s="5">
+      <c r="C62" s="4" t="str">
+        <f>VLOOKUP(B62,[1]底薪计算!D:I,6,FALSE)</f>
+        <v>Y</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G61" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B61,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H61" s="6"/>
-      <c r="I61" s="1" t="str">
-        <f>VLOOKUP(B61,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>朱江益</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C62" s="4" t="e">
-        <f>VLOOKUP(B62,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="5" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
       <c r="G62" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B62,'[1]4-5月集团客户明细'!P:P)</f>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B62,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H62" s="6"/>
-      <c r="I62" s="1" t="e">
+      <c r="I62" s="1" t="str">
         <f>VLOOKUP(B62,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>韦志强</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="4" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C63" s="4" t="str">
         <f>VLOOKUP(B63,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="F63" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G63" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B63,'[1]4-5月集团客户明细'!N:N)</f>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B63,'[1]4-5月集团客户明细'!P:P)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="1" t="str">
         <f>VLOOKUP(B63,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>韦志强</v>
+        <v>文志立</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>131</v>
@@ -6130,10 +6119,10 @@
         <v>Y</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F64" s="5">
         <f t="shared" si="2"/>
@@ -6146,43 +6135,43 @@
       <c r="H64" s="6"/>
       <c r="I64" s="1" t="str">
         <f>VLOOKUP(B64,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>文志立</v>
+        <v>胡政</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C65" s="4" t="str">
         <f>VLOOKUP(B65,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="F65" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G65" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B65,'[1]4-5月集团客户明细'!P:P)</f>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B65,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="1" t="str">
         <f>VLOOKUP(B65,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>胡政</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>杨菊花</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1">
       <c r="A66" s="4" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>134</v>
@@ -6192,28 +6181,31 @@
         <v>Y</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="F66" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B66,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H66" s="6"/>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B66,'[1]4-5月集团客户明细'!P:P)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H66" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I66" s="1" t="str">
         <f>VLOOKUP(B66,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>杨菊花</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" hidden="1">
+        <v>邹耀廷</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="4" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>136</v>
@@ -6223,104 +6215,99 @@
         <v>Y</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>137</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E67" s="4"/>
       <c r="F67" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B67,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H67" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B67,'[1]4-5月集团客户明细'!N:N)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H67" s="6"/>
       <c r="I67" s="1" t="str">
         <f>VLOOKUP(B67,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>邹耀廷</v>
+        <v>李小兵</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="4" t="e">
+        <f>VLOOKUP(B68,[1]底薪计算!D:I,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G68" s="5" t="e">
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B68,'[1]4-5月集团客户明细'!N:N)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H68" s="6"/>
+      <c r="I68" s="1" t="e">
+        <f>VLOOKUP(B68,[1]底薪计算!D:D,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="4" t="str">
-        <f>VLOOKUP(B68,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>Y</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="5">
+      <c r="C69" s="4" t="str">
+        <f>VLOOKUP(B69,[1]底薪计算!D:I,6,FALSE)</f>
+        <v>Y</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G68" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B68,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H68" s="6"/>
-      <c r="I68" s="1" t="str">
-        <f>VLOOKUP(B68,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>李小兵</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C69" s="4" t="e">
-        <f>VLOOKUP(B69,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="5" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
       <c r="G69" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B69,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H69" s="6"/>
-      <c r="I69" s="1" t="e">
+      <c r="I69" s="1" t="str">
         <f>VLOOKUP(B69,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>程海健</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="4" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C70" s="4" t="str">
+        <v>139</v>
+      </c>
+      <c r="C70" s="4">
         <f>VLOOKUP(B70,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>Y</v>
+        <v>3</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B70,'[1]4-5月集团客户明细'!N:N)</f>
@@ -6329,27 +6316,29 @@
       <c r="H70" s="6"/>
       <c r="I70" s="1" t="str">
         <f>VLOOKUP(B70,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>程海健</v>
+        <v>夏永杰</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="4" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="4" t="str">
+        <f>VLOOKUP(B71,[1]底薪计算!D:I,6,FALSE)</f>
+        <v>Y</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="4">
-        <f>VLOOKUP(B71,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="4"/>
       <c r="F71" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B71,'[1]4-5月集团客户明细'!N:N)</f>
@@ -6358,53 +6347,51 @@
       <c r="H71" s="6"/>
       <c r="I71" s="1" t="str">
         <f>VLOOKUP(B71,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>夏永杰</v>
+        <v>陈常利</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="4" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C72" s="4" t="str">
+      <c r="C72" s="4" t="e">
         <f>VLOOKUP(B72,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>Y</v>
+        <v>#N/A</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F72" s="5">
+        <v>10</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="5" t="e">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="G72" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B72,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H72" s="6"/>
-      <c r="I72" s="1" t="str">
+      <c r="I72" s="1" t="e">
         <f>VLOOKUP(B72,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>陈常利</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C73" s="4" t="e">
         <f>VLOOKUP(B73,[1]底薪计算!D:I,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="5" t="e">
@@ -6423,213 +6410,215 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" s="4" t="str">
+        <f>VLOOKUP(B74,[1]底薪计算!D:I,6,FALSE)</f>
+        <v>Y</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G74" s="5" t="e">
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B74,'[1]4-5月集团客户明细'!N:N)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H74" s="6"/>
+      <c r="I74" s="1" t="str">
+        <f>VLOOKUP(B74,[1]底薪计算!D:D,1,FALSE)</f>
+        <v>杨辉</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C74" s="4" t="e">
-        <f>VLOOKUP(B74,[1]底薪计算!D:I,6,FALSE)</f>
+      <c r="C75" s="4" t="e">
+        <f>VLOOKUP(B75,[1]底薪计算!D:I,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="5" t="e">
+      <c r="D75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="5" t="e">
+        <f>IF(AND(D75="直销",C75="Y"),1,IF(AND(D75="一体化",E75&lt;&gt;" "),0,IF(AND(D75="一体化",EC2975="Y"),1,0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G75" s="5" t="e">
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B75,'[1]4-5月集团客户明细'!N:N)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H75" s="6"/>
+      <c r="I75" s="1" t="e">
+        <f>VLOOKUP(B75,[1]底薪计算!D:D,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="4">
+        <f>VLOOKUP(B76,[1]底薪计算!D:I,6,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="5" t="e">
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B76,'[1]4-5月集团客户明细'!N:N)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="1" t="str">
+        <f>VLOOKUP(B76,[1]底薪计算!D:D,1,FALSE)</f>
+        <v>彭知群</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" s="4" t="e">
+        <f>VLOOKUP(B77,[1]底薪计算!D:I,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G74" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B74,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H74" s="6"/>
-      <c r="I74" s="1" t="e">
-        <f>VLOOKUP(B74,[1]底薪计算!D:D,1,FALSE)</f>
+      <c r="G77" s="5" t="e">
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B77,'[1]4-5月集团客户明细'!N:N)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H77" s="6"/>
+      <c r="I77" s="1" t="e">
+        <f>VLOOKUP(B77,[1]底薪计算!D:D,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C75" s="4" t="str">
-        <f>VLOOKUP(B75,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>Y</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="5">
+    <row r="78" spans="1:9">
+      <c r="A78" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" s="4" t="str">
+        <f>VLOOKUP(B78,[1]底薪计算!D:I,6,FALSE)</f>
+        <v>Y</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G75" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B75,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="1" t="str">
-        <f>VLOOKUP(B75,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>杨辉</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C76" s="4" t="e">
-        <f>VLOOKUP(B76,[1]底薪计算!D:I,6,FALSE)</f>
+      <c r="G78" s="5" t="e">
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B78,'[1]4-5月集团客户明细'!N:N)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H78" s="6"/>
+      <c r="I78" s="1" t="str">
+        <f>VLOOKUP(B78,[1]底薪计算!D:D,1,FALSE)</f>
+        <v>徐元球</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" hidden="1">
+      <c r="A79" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" s="4" t="e">
+        <f>VLOOKUP(B79,[1]底薪计算!D:I,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="5" t="e">
-        <f>IF(AND(D76="直销",C76="Y"),1,IF(AND(D76="一体化",E76&lt;&gt;" "),0,IF(AND(D76="一体化",EC2976="Y"),1,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G76" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B76,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H76" s="6"/>
-      <c r="I76" s="1" t="e">
-        <f>VLOOKUP(B76,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C77" s="4">
-        <f>VLOOKUP(B77,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B77,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H77" s="6"/>
-      <c r="I77" s="1" t="str">
-        <f>VLOOKUP(B77,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>彭知群</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C78" s="4" t="e">
-        <f>VLOOKUP(B78,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="5" t="e">
+      <c r="D79" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G78" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B78,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H78" s="6"/>
-      <c r="I78" s="1" t="e">
-        <f>VLOOKUP(B78,[1]底薪计算!D:D,1,FALSE)</f>
+      <c r="G79" s="5" t="e">
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B79,'[1]4-5月集团客户明细'!N:N)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H79" s="6" t="e">
+        <f t="shared" ref="H79:H128" si="3">IF(AND(C79="Y",G79&lt;F79),-100,0)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B79" s="4" t="s">
+      <c r="I79" s="1" t="e">
+        <f>VLOOKUP(B79,[1]底薪计算!D:D,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C79" s="4" t="str">
-        <f>VLOOKUP(B79,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>Y</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="5">
+      <c r="C80" s="4" t="str">
+        <f>VLOOKUP(B80,[1]底薪计算!D:I,6,FALSE)</f>
+        <v>Y</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F80" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G79" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B79,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H79" s="6"/>
-      <c r="I79" s="1" t="str">
-        <f>VLOOKUP(B79,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>徐元球</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" hidden="1">
-      <c r="A80" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C80" s="4" t="e">
-        <f>VLOOKUP(B80,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="5" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
       <c r="G80" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B80,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H80" s="6" t="e">
-        <f t="shared" ref="H80:H129" si="3">IF(AND(C80="Y",G80&lt;F80),-100,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I80" s="1" t="e">
+      <c r="H80" s="6"/>
+      <c r="I80" s="1" t="str">
         <f>VLOOKUP(B80,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>祖静彪</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="4" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>152</v>
@@ -6639,11 +6628,9 @@
         <v>Y</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>153</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E81" s="4"/>
       <c r="F81" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6655,51 +6642,54 @@
       <c r="H81" s="6"/>
       <c r="I81" s="1" t="str">
         <f>VLOOKUP(B81,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>祖静彪</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>彭文群</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" hidden="1">
       <c r="A82" s="4" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C82" s="4" t="str">
         <f>VLOOKUP(B82,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B82,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H82" s="6"/>
+      <c r="H82" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I82" s="1" t="str">
         <f>VLOOKUP(B82,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>彭文群</v>
+        <v>杨晓艳</v>
       </c>
     </row>
     <row r="83" spans="1:9" hidden="1">
       <c r="A83" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C83" s="4" t="str">
         <f>VLOOKUP(B83,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="5">
@@ -6716,61 +6706,58 @@
       </c>
       <c r="I83" s="1" t="str">
         <f>VLOOKUP(B83,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>杨晓艳</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" hidden="1">
+        <v>钟小红</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="4" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C84" s="4" t="str">
         <f>VLOOKUP(B84,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E84" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F84" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B84,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H84" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H84" s="6"/>
       <c r="I84" s="1" t="str">
         <f>VLOOKUP(B84,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>钟小红</v>
+        <v>黄智乾</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="4" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="4" t="str">
+        <v>156</v>
+      </c>
+      <c r="C85" s="4">
         <f>VLOOKUP(B85,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>Y</v>
+        <v>3</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E85" s="4"/>
       <c r="F85" s="5">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(AND(D85="直销",C85="Y"),1,IF(AND(D85="一体化",E85&lt;&gt;" "),0,IF(AND(D85="一体化",EC2985="Y"),1,0)))</f>
+        <v>0</v>
       </c>
       <c r="G85" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B85,'[1]4-5月集团客户明细'!N:N)</f>
@@ -6779,26 +6766,26 @@
       <c r="H85" s="6"/>
       <c r="I85" s="1" t="str">
         <f>VLOOKUP(B85,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>黄智乾</v>
+        <v>农军成</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="4" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C86" s="4">
         <f>VLOOKUP(B86,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="5">
-        <f>IF(AND(D86="直销",C86="Y"),1,IF(AND(D86="一体化",E86&lt;&gt;" "),0,IF(AND(D86="一体化",EC2986="Y"),1,0)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G86" s="5" t="e">
@@ -6808,91 +6795,96 @@
       <c r="H86" s="6"/>
       <c r="I86" s="1" t="str">
         <f>VLOOKUP(B86,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>农军成</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>肖忠</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" hidden="1">
       <c r="A87" s="4" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" s="4" t="e">
+        <f>VLOOKUP(B87,[1]底薪计算!D:I,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E87" s="4"/>
+      <c r="F87" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G87" s="5" t="e">
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B87,'[1]4-5月集团客户明细'!N:N)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H87" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I87" s="1" t="e">
+        <f>VLOOKUP(B87,[1]底薪计算!D:D,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" hidden="1">
+      <c r="A88" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C87" s="4">
-        <f>VLOOKUP(B87,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="5">
+      <c r="C88" s="4" t="str">
+        <f>VLOOKUP(B88,[1]底薪计算!D:I,6,FALSE)</f>
+        <v>Y</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G87" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B87,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H87" s="6"/>
-      <c r="I87" s="1" t="str">
-        <f>VLOOKUP(B87,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>肖忠</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" hidden="1">
-      <c r="A88" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C88" s="4" t="e">
-        <f>VLOOKUP(B88,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="5" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
       <c r="G88" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B88,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H88" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I88" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I88" s="1" t="str">
         <f>VLOOKUP(B88,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>白莉</v>
       </c>
     </row>
     <row r="89" spans="1:9" hidden="1">
       <c r="A89" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C89" s="4" t="str">
         <f>VLOOKUP(B89,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E89" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="F89" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G89" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B89,'[1]4-5月集团客户明细'!N:N)</f>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B89,'[1]4-5月集团客户明细'!P:P)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H89" s="6" t="e">
@@ -6901,12 +6893,12 @@
       </c>
       <c r="I89" s="1" t="str">
         <f>VLOOKUP(B89,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>白莉</v>
+        <v>陈伟娣</v>
       </c>
     </row>
     <row r="90" spans="1:9" hidden="1">
       <c r="A90" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>162</v>
@@ -6916,7 +6908,7 @@
         <v>Y</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>163</v>
@@ -6935,12 +6927,12 @@
       </c>
       <c r="I90" s="1" t="str">
         <f>VLOOKUP(B90,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>陈伟娣</v>
+        <v>王武东</v>
       </c>
     </row>
     <row r="91" spans="1:9" hidden="1">
       <c r="A91" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>164</v>
@@ -6950,51 +6942,49 @@
         <v>Y</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>165</v>
       </c>
       <c r="F91" s="5">
+        <f>IF(AND(D91="直销",C91="Y"),1,IF(AND(D91="一体化",E91&lt;&gt;" "),0,IF(AND(D91="一体化",EC2991="Y"),1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="G91" s="5" t="e">
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B91,'[1]4-5月集团客户明细'!P:P)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H91" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I91" s="1" t="str">
+        <f>VLOOKUP(B91,[1]底薪计算!D:D,1,FALSE)</f>
+        <v>朱文彬</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" hidden="1">
+      <c r="A92" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C92" s="4" t="str">
+        <f>VLOOKUP(B92,[1]底薪计算!D:I,6,FALSE)</f>
+        <v>Y</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G91" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B91,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H91" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I91" s="1" t="str">
-        <f>VLOOKUP(B91,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>王武东</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" hidden="1">
-      <c r="A92" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C92" s="4" t="str">
-        <f>VLOOKUP(B92,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>Y</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F92" s="5">
-        <f>IF(AND(D92="直销",C92="Y"),1,IF(AND(D92="一体化",E92&lt;&gt;" "),0,IF(AND(D92="一体化",EC2992="Y"),1,0)))</f>
-        <v>0</v>
-      </c>
       <c r="G92" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B92,'[1]4-5月集团客户明细'!P:P)</f>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B92,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H92" s="6" t="e">
@@ -7003,109 +6993,108 @@
       </c>
       <c r="I92" s="1" t="str">
         <f>VLOOKUP(B92,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>朱文彬</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" hidden="1">
+        <v>邓鸣健</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C93" s="4" t="str">
         <f>VLOOKUP(B93,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E93" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="F93" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="F93" si="4">IF(AND(D93="直销",C93="Y"),1,IF(AND(D93="一体化",E93&lt;&gt;" "),0,IF(AND(D93="一体化",EC2993="Y"),1,0)))</f>
+        <v>1</v>
       </c>
       <c r="G93" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B93,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H93" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B93,'[1]4-5月集团客户明细'!P:P)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H93" s="6"/>
       <c r="I93" s="1" t="str">
         <f>VLOOKUP(B93,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>邓鸣健</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>彭云明</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" hidden="1">
       <c r="A94" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C94" s="4" t="str">
         <f>VLOOKUP(B94,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F94" s="5">
-        <f t="shared" ref="F94" si="4">IF(AND(D94="直销",C94="Y"),1,IF(AND(D94="一体化",E94&lt;&gt;" "),0,IF(AND(D94="一体化",EC2994="Y"),1,0)))</f>
-        <v>1</v>
+        <f>IF(AND(D94="直销",C94="Y"),1,IF(AND(D94="一体化",E94&lt;&gt;" "),0,IF(AND(D94="一体化",EC2994="Y"),1,0)))</f>
+        <v>0</v>
       </c>
       <c r="G94" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B94,'[1]4-5月集团客户明细'!P:P)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H94" s="6"/>
+      <c r="H94" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I94" s="1" t="str">
         <f>VLOOKUP(B94,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>彭云明</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" hidden="1">
+        <v>黄向长</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C95" s="4" t="str">
         <f>VLOOKUP(B95,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="F95" s="5">
-        <f>IF(AND(D95="直销",C95="Y"),1,IF(AND(D95="一体化",E95&lt;&gt;" "),0,IF(AND(D95="一体化",EC2995="Y"),1,0)))</f>
-        <v>0</v>
+        <f t="shared" ref="F95:F155" si="5">IF(AND(D95="直销",C95="Y"),1,IF(AND(D95="一体化",E95&lt;&gt;" "),0,IF(AND(D95="一体化",EC2995="Y"),1,0)))</f>
+        <v>1</v>
       </c>
       <c r="G95" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B95,'[1]4-5月集团客户明细'!P:P)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H95" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H95" s="6"/>
       <c r="I95" s="1" t="str">
         <f>VLOOKUP(B95,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>黄向长</v>
+        <v>易阿红</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>171</v>
@@ -7115,13 +7104,13 @@
         <v>Y</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>172</v>
       </c>
       <c r="F96" s="5">
-        <f t="shared" ref="F96:F156" si="5">IF(AND(D96="直销",C96="Y"),1,IF(AND(D96="一体化",E96&lt;&gt;" "),0,IF(AND(D96="一体化",EC2996="Y"),1,0)))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G96" s="5" t="e">
@@ -7131,12 +7120,12 @@
       <c r="H96" s="6"/>
       <c r="I96" s="1" t="str">
         <f>VLOOKUP(B96,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>易阿红</v>
+        <v>冯三防</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>173</v>
@@ -7146,7 +7135,7 @@
         <v>Y</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>174</v>
@@ -7162,12 +7151,12 @@
       <c r="H97" s="6"/>
       <c r="I97" s="1" t="str">
         <f>VLOOKUP(B97,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>冯三防</v>
+        <v>彭英智</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="4" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>175</v>
@@ -7177,7 +7166,7 @@
         <v>Y</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>176</v>
@@ -7193,12 +7182,12 @@
       <c r="H98" s="6"/>
       <c r="I98" s="1" t="str">
         <f>VLOOKUP(B98,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>彭英智</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>吴勇</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" hidden="1">
       <c r="A99" s="4" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>177</v>
@@ -7208,75 +7197,75 @@
         <v>Y</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="F99" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B99,'[1]4-5月集团客户明细'!P:P)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H99" s="6"/>
+      <c r="H99" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I99" s="1" t="str">
         <f>VLOOKUP(B99,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>吴勇</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" hidden="1">
+        <v>谭远明</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C100" s="4" t="str">
         <f>VLOOKUP(B100,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F100" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B100,'[1]4-5月集团客户明细'!P:P)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H100" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H100" s="6"/>
       <c r="I100" s="1" t="str">
         <f>VLOOKUP(B100,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>谭远明</v>
+        <v>王意峰</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="4" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C101" s="4" t="str">
         <f>VLOOKUP(B101,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="F101" s="5">
         <f t="shared" si="5"/>
@@ -7289,12 +7278,12 @@
       <c r="H101" s="6"/>
       <c r="I101" s="1" t="str">
         <f>VLOOKUP(B101,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>王意峰</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>张泽文</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" hidden="1">
       <c r="A102" s="4" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>181</v>
@@ -7304,41 +7293,44 @@
         <v>Y</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="F102" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B102,'[1]4-5月集团客户明细'!P:P)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H102" s="6"/>
+      <c r="H102" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I102" s="1" t="str">
         <f>VLOOKUP(B102,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>张泽文</v>
+        <v>蔡定强</v>
       </c>
     </row>
     <row r="103" spans="1:9" hidden="1">
       <c r="A103" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C103" s="4" t="str">
         <f>VLOOKUP(B103,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F103" s="5">
         <f t="shared" si="5"/>
@@ -7354,126 +7346,126 @@
       </c>
       <c r="I103" s="1" t="str">
         <f>VLOOKUP(B103,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>蔡定强</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" hidden="1">
+        <v>李伟林</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="4" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C104" s="4" t="str">
         <f>VLOOKUP(B104,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="F104" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B104,'[1]4-5月集团客户明细'!P:P)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H104" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H104" s="6"/>
       <c r="I104" s="1" t="str">
         <f>VLOOKUP(B104,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>李伟林</v>
+        <v>魏祥洋</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C105" s="4" t="str">
+        <v>184</v>
+      </c>
+      <c r="C105" s="4" t="e">
         <f>VLOOKUP(B105,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>Y</v>
+        <v>#N/A</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F105" s="5">
+        <v>10</v>
+      </c>
+      <c r="E105" s="4"/>
+      <c r="F105" s="5" t="e">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="G105" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B105,'[1]4-5月集团客户明细'!P:P)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H105" s="6"/>
-      <c r="I105" s="1" t="str">
+      <c r="I105" s="1" t="e">
         <f>VLOOKUP(B105,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>魏祥洋</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" hidden="1">
       <c r="A106" s="4" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C106" s="4" t="e">
+        <v>185</v>
+      </c>
+      <c r="C106" s="4" t="str">
         <f>VLOOKUP(B106,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>#N/A</v>
+        <v>Y</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" s="4"/>
-      <c r="F106" s="5" t="e">
+        <v>135</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F106" s="5">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="G106" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B106,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H106" s="6"/>
-      <c r="I106" s="1" t="e">
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B106,'[1]4-5月集团客户明细'!N:N)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H106" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I106" s="1" t="str">
         <f>VLOOKUP(B106,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>王成</v>
       </c>
     </row>
     <row r="107" spans="1:9" hidden="1">
       <c r="A107" s="4" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C107" s="4" t="str">
         <f>VLOOKUP(B107,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="F107" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G107" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B107,'[1]4-5月集团客户明细'!N:N)</f>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B107,'[1]4-5月集团客户明细'!P:P)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H107" s="6" t="e">
@@ -7482,12 +7474,12 @@
       </c>
       <c r="I107" s="1" t="str">
         <f>VLOOKUP(B107,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>王成</v>
+        <v>宋孝波</v>
       </c>
     </row>
     <row r="108" spans="1:9" hidden="1">
       <c r="A108" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>188</v>
@@ -7497,7 +7489,7 @@
         <v>Y</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>189</v>
@@ -7516,12 +7508,12 @@
       </c>
       <c r="I108" s="1" t="str">
         <f>VLOOKUP(B108,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>宋孝波</v>
+        <v>付森基</v>
       </c>
     </row>
     <row r="109" spans="1:9" hidden="1">
       <c r="A109" s="4" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>190</v>
@@ -7531,17 +7523,15 @@
         <v>Y</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>191</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E109" s="4"/>
       <c r="F109" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G109" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B109,'[1]4-5月集团客户明细'!P:P)</f>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B109,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H109" s="6" t="e">
@@ -7550,24 +7540,26 @@
       </c>
       <c r="I109" s="1" t="str">
         <f>VLOOKUP(B109,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>付森基</v>
+        <v>焦慧君</v>
       </c>
     </row>
     <row r="110" spans="1:9" hidden="1">
       <c r="A110" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C110" s="4" t="str">
         <f>VLOOKUP(B110,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E110" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="F110" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7582,32 +7574,32 @@
       </c>
       <c r="I110" s="1" t="str">
         <f>VLOOKUP(B110,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>焦慧君</v>
+        <v>萧子大</v>
       </c>
     </row>
     <row r="111" spans="1:9" hidden="1">
       <c r="A111" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C111" s="4" t="str">
         <f>VLOOKUP(B111,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="F111" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G111" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B111,'[1]4-5月集团客户明细'!N:N)</f>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B111,'[1]4-5月集团客户明细'!P:P)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H111" s="6" t="e">
@@ -7616,26 +7608,24 @@
       </c>
       <c r="I111" s="1" t="str">
         <f>VLOOKUP(B111,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>萧子大</v>
+        <v>杜嘉明</v>
       </c>
     </row>
     <row r="112" spans="1:9" hidden="1">
       <c r="A112" s="4" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C112" s="4" t="str">
         <f>VLOOKUP(B112,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E112" s="4"/>
       <c r="F112" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7650,24 +7640,26 @@
       </c>
       <c r="I112" s="1" t="str">
         <f>VLOOKUP(B112,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>杜嘉明</v>
+        <v>陈彦忠</v>
       </c>
     </row>
     <row r="113" spans="1:9" hidden="1">
       <c r="A113" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C113" s="4" t="str">
         <f>VLOOKUP(B113,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E113" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="F113" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7682,12 +7674,12 @@
       </c>
       <c r="I113" s="1" t="str">
         <f>VLOOKUP(B113,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>陈彦忠</v>
+        <v>黎兵兵</v>
       </c>
     </row>
     <row r="114" spans="1:9" hidden="1">
       <c r="A114" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>196</v>
@@ -7697,11 +7689,9 @@
         <v>Y</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>197</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E114" s="4"/>
       <c r="F114" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7716,24 +7706,26 @@
       </c>
       <c r="I114" s="1" t="str">
         <f>VLOOKUP(B114,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>黎兵兵</v>
+        <v>罗志文</v>
       </c>
     </row>
     <row r="115" spans="1:9" hidden="1">
       <c r="A115" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C115" s="4" t="str">
         <f>VLOOKUP(B115,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E115" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="F115" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7748,25 +7740,25 @@
       </c>
       <c r="I115" s="1" t="str">
         <f>VLOOKUP(B115,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>罗志文</v>
+        <v>吴斌</v>
       </c>
     </row>
     <row r="116" spans="1:9" hidden="1">
       <c r="A116" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C116" s="4" t="str">
         <f>VLOOKUP(B116,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="F116" s="5">
         <f t="shared" si="5"/>
@@ -7782,12 +7774,12 @@
       </c>
       <c r="I116" s="1" t="str">
         <f>VLOOKUP(B116,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>吴斌</v>
+        <v>谢熙</v>
       </c>
     </row>
     <row r="117" spans="1:9" hidden="1">
       <c r="A117" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>200</v>
@@ -7797,10 +7789,10 @@
         <v>Y</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F117" s="5">
         <f t="shared" si="5"/>
@@ -7816,26 +7808,24 @@
       </c>
       <c r="I117" s="1" t="str">
         <f>VLOOKUP(B117,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>谢熙</v>
+        <v>辛芳明</v>
       </c>
     </row>
     <row r="118" spans="1:9" hidden="1">
       <c r="A118" s="4" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C118" s="4" t="str">
         <f>VLOOKUP(B118,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>197</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E118" s="4"/>
       <c r="F118" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7850,12 +7840,12 @@
       </c>
       <c r="I118" s="1" t="str">
         <f>VLOOKUP(B118,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>辛芳明</v>
+        <v>欧阳德青</v>
       </c>
     </row>
     <row r="119" spans="1:9" hidden="1">
       <c r="A119" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>203</v>
@@ -7865,7 +7855,7 @@
         <v>Y</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="5">
@@ -7882,27 +7872,27 @@
       </c>
       <c r="I119" s="1" t="str">
         <f>VLOOKUP(B119,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>欧阳德青</v>
+        <v>方华东</v>
       </c>
     </row>
     <row r="120" spans="1:9" hidden="1">
       <c r="A120" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C120" s="4" t="str">
+        <v>204</v>
+      </c>
+      <c r="C120" s="4" t="e">
         <f>VLOOKUP(B120,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>Y</v>
+        <v>#N/A</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E120" s="4"/>
-      <c r="F120" s="5">
+      <c r="F120" s="5" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="G120" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B120,'[1]4-5月集团客户明细'!P:P)</f>
@@ -7910,26 +7900,26 @@
       </c>
       <c r="H120" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I120" s="1" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I120" s="1" t="e">
         <f>VLOOKUP(B120,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>方华东</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="121" spans="1:9" hidden="1">
       <c r="A121" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C121" s="4" t="e">
         <f>VLOOKUP(B121,[1]底薪计算!D:I,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="5" t="e">
@@ -7951,22 +7941,22 @@
     </row>
     <row r="122" spans="1:9" hidden="1">
       <c r="A122" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C122" s="4" t="e">
+        <v>206</v>
+      </c>
+      <c r="C122" s="4" t="str">
         <f>VLOOKUP(B122,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>#N/A</v>
+        <v>Y</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E122" s="4"/>
-      <c r="F122" s="5" t="e">
+      <c r="F122" s="5">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="G122" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B122,'[1]4-5月集团客户明细'!P:P)</f>
@@ -7974,26 +7964,26 @@
       </c>
       <c r="H122" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I122" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I122" s="1" t="str">
         <f>VLOOKUP(B122,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>韩相力</v>
       </c>
     </row>
     <row r="123" spans="1:9" hidden="1">
       <c r="A123" s="4" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C123" s="4" t="str">
         <f>VLOOKUP(B123,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="5">
@@ -8010,22 +8000,22 @@
       </c>
       <c r="I123" s="1" t="str">
         <f>VLOOKUP(B123,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>韩相力</v>
+        <v>陈志鹏</v>
       </c>
     </row>
     <row r="124" spans="1:9" hidden="1">
       <c r="A124" s="4" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C124" s="4" t="str">
         <f>VLOOKUP(B124,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="5">
@@ -8042,147 +8032,147 @@
       </c>
       <c r="I124" s="1" t="str">
         <f>VLOOKUP(B124,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>陈志鹏</v>
+        <v>黄义凯</v>
       </c>
     </row>
     <row r="125" spans="1:9" hidden="1">
       <c r="A125" s="4" t="s">
-        <v>48</v>
+        <v>210</v>
       </c>
       <c r="B125" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C125" s="4" t="e">
+        <f>VLOOKUP(B125,[1]底薪计算!D:I,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E125" s="4"/>
+      <c r="F125" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G125" s="5" t="e">
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B125,'[1]4-5月集团客户明细'!N:N)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H125" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I125" s="1" t="e">
+        <f>VLOOKUP(B125,[1]底薪计算!D:D,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" hidden="1">
+      <c r="A126" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C125" s="4" t="str">
-        <f>VLOOKUP(B125,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>Y</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E125" s="4"/>
-      <c r="F125" s="5">
+      <c r="B126" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C126" s="4">
+        <f>VLOOKUP(B126,[1]底薪计算!D:I,6,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E126" s="4"/>
+      <c r="F126" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G125" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B125,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H125" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I125" s="1" t="str">
-        <f>VLOOKUP(B125,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>黄义凯</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" hidden="1">
-      <c r="A126" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C126" s="4" t="e">
-        <f>VLOOKUP(B126,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E126" s="4"/>
-      <c r="F126" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
       <c r="G126" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B126,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H126" s="6" t="e">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I126" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I126" s="1" t="str">
         <f>VLOOKUP(B126,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" hidden="1">
+        <v>裴沛</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="4" t="s">
-        <v>212</v>
+        <v>64</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C127" s="4">
+        <v>213</v>
+      </c>
+      <c r="C127" s="4" t="str">
         <f>VLOOKUP(B127,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>3</v>
+        <v>Y</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B127,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H127" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H127" s="6"/>
       <c r="I127" s="1" t="str">
         <f>VLOOKUP(B127,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>裴沛</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>卢丹龙</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" hidden="1">
       <c r="A128" s="4" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C128" s="4" t="str">
         <f>VLOOKUP(B128,[1]底薪计算!D:I,6,FALSE)</f>
         <v>Y</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B128,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H128" s="6"/>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B128,'[1]4-5月集团客户明细'!P:P)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H128" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I128" s="1" t="str">
         <f>VLOOKUP(B128,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>卢丹龙</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" hidden="1">
+        <v>吴四一</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="4" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C129" s="4" t="str">
+        <v>215</v>
+      </c>
+      <c r="C129" s="4">
         <f>VLOOKUP(B129,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>Y</v>
+        <v>3</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="5">
@@ -8190,31 +8180,28 @@
         <v>0</v>
       </c>
       <c r="G129" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B129,'[1]4-5月集团客户明细'!P:P)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H129" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B129,'[1]4-5月集团客户明细'!N:N)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H129" s="6"/>
       <c r="I129" s="1" t="str">
         <f>VLOOKUP(B129,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>吴四一</v>
+        <v>岑常师</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="4" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C130" s="4">
         <f>VLOOKUP(B130,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="5">
@@ -8228,22 +8215,22 @@
       <c r="H130" s="6"/>
       <c r="I130" s="1" t="str">
         <f>VLOOKUP(B130,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>岑常师</v>
+        <v>刘志成</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="4" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C131" s="4">
         <f>VLOOKUP(B131,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="5">
@@ -8257,22 +8244,22 @@
       <c r="H131" s="6"/>
       <c r="I131" s="1" t="str">
         <f>VLOOKUP(B131,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>刘志成</v>
+        <v>韦文生</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C132" s="4">
         <f>VLOOKUP(B132,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="5">
@@ -8286,22 +8273,22 @@
       <c r="H132" s="6"/>
       <c r="I132" s="1" t="str">
         <f>VLOOKUP(B132,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>韦文生</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>黄继生</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" hidden="1">
       <c r="A133" s="4" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C133" s="4">
         <f>VLOOKUP(B133,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="5">
@@ -8312,25 +8299,28 @@
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B133,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H133" s="6"/>
+      <c r="H133" s="6" t="e">
+        <f t="shared" ref="H133:H153" si="6">IF(AND(C133="Y",G133&lt;F133),-100,0)</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="I133" s="1" t="str">
         <f>VLOOKUP(B133,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>黄继生</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" hidden="1">
+        <v>吴国明</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="4" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C134" s="4">
         <f>VLOOKUP(B134,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="5">
@@ -8341,28 +8331,25 @@
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B134,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H134" s="6" t="e">
-        <f t="shared" ref="H134:H154" si="6">IF(AND(C134="Y",G134&lt;F134),-100,0)</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H134" s="6"/>
       <c r="I134" s="1" t="str">
         <f>VLOOKUP(B134,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>吴国明</v>
+        <v>莫灵快</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C135" s="4">
         <f>VLOOKUP(B135,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="5">
@@ -8376,22 +8363,22 @@
       <c r="H135" s="6"/>
       <c r="I135" s="1" t="str">
         <f>VLOOKUP(B135,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>莫灵快</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>杜中</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" hidden="1">
       <c r="A136" s="4" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C136" s="4">
         <f>VLOOKUP(B136,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="5">
@@ -8402,86 +8389,89 @@
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B136,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H136" s="6"/>
+      <c r="H136" s="6" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I136" s="1" t="str">
         <f>VLOOKUP(B136,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>杜中</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" hidden="1">
+        <v>袁新景</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C137" s="4" t="e">
+        <f>VLOOKUP(B137,[1]底薪计算!D:I,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E137" s="4"/>
+      <c r="F137" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G137" s="5" t="e">
+        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B137,'[1]4-5月集团客户明细'!N:N)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H137" s="6"/>
+      <c r="I137" s="1" t="e">
+        <f>VLOOKUP(B137,[1]底薪计算!D:D,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" hidden="1">
+      <c r="A138" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C138" s="4">
+        <f>VLOOKUP(B138,[1]底薪计算!D:I,6,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D138" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B137" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C137" s="4">
-        <f>VLOOKUP(B137,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E137" s="4"/>
-      <c r="F137" s="5">
+      <c r="E138" s="4"/>
+      <c r="F138" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G137" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B137,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H137" s="6" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I137" s="1" t="str">
-        <f>VLOOKUP(B137,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>袁新景</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C138" s="4" t="e">
-        <f>VLOOKUP(B138,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E138" s="4"/>
-      <c r="F138" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
       <c r="G138" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B138,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H138" s="6"/>
-      <c r="I138" s="1" t="e">
+      <c r="H138" s="6" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I138" s="1" t="str">
         <f>VLOOKUP(B138,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" hidden="1">
+        <v>王秋焕</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="4" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C139" s="4">
         <f>VLOOKUP(B139,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="5">
@@ -8492,28 +8482,25 @@
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B139,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H139" s="6" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H139" s="6"/>
       <c r="I139" s="1" t="str">
         <f>VLOOKUP(B139,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>王秋焕</v>
+        <v>吴楚伟</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="4" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C140" s="4">
         <f>VLOOKUP(B140,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="5">
@@ -8527,26 +8514,26 @@
       <c r="H140" s="6"/>
       <c r="I140" s="1" t="str">
         <f>VLOOKUP(B140,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>吴楚伟</v>
+        <v>刘德昌</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C141" s="4">
         <f>VLOOKUP(B141,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="5">
-        <f t="shared" si="5"/>
+        <f>IF(AND(D141="直销",C141="Y"),1,IF(AND(D141="一体化",E141&lt;&gt;" "),0,IF(AND(D141="一体化",EC3041="Y"),1,0)))</f>
         <v>0</v>
       </c>
       <c r="G141" s="5" t="e">
@@ -8556,51 +8543,54 @@
       <c r="H141" s="6"/>
       <c r="I141" s="1" t="str">
         <f>VLOOKUP(B141,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>刘德昌</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>刘德生</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" hidden="1">
       <c r="A142" s="4" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C142" s="4">
         <f>VLOOKUP(B142,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="5">
-        <f>IF(AND(D142="直销",C142="Y"),1,IF(AND(D142="一体化",E142&lt;&gt;" "),0,IF(AND(D142="一体化",EC3042="Y"),1,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G142" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B142,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H142" s="6"/>
+      <c r="H142" s="6" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I142" s="1" t="str">
         <f>VLOOKUP(B142,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>刘德生</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" hidden="1">
+        <v>张远庭</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="4" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C143" s="4">
         <f>VLOOKUP(B143,[1]底薪计算!D:I,6,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="5">
@@ -8611,28 +8601,25 @@
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B143,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H143" s="6" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H143" s="6"/>
       <c r="I143" s="1" t="str">
         <f>VLOOKUP(B143,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>张远庭</v>
+        <v>张秀标</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="4" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C144" s="4">
         <f>VLOOKUP(B144,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="5">
@@ -8646,22 +8633,22 @@
       <c r="H144" s="6"/>
       <c r="I144" s="1" t="str">
         <f>VLOOKUP(B144,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>张秀标</v>
+        <v>刘松涛</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C145" s="4">
         <f>VLOOKUP(B145,[1]底薪计算!D:I,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="5">
@@ -8675,24 +8662,26 @@
       <c r="H145" s="6"/>
       <c r="I145" s="1" t="str">
         <f>VLOOKUP(B145,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>刘松涛</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>杨平金</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" hidden="1">
       <c r="A146" s="4" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C146" s="4">
         <f>VLOOKUP(B146,[1]底薪计算!D:I,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E146" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="F146" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8701,29 +8690,30 @@
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B146,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H146" s="6"/>
+      <c r="H146" s="6" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I146" s="1" t="str">
         <f>VLOOKUP(B146,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>杨平金</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" hidden="1">
+        <v>汪洞辉</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="4" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C147" s="4">
         <f>VLOOKUP(B147,[1]底薪计算!D:I,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>137</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E147" s="4"/>
       <c r="F147" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8732,28 +8722,25 @@
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B147,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H147" s="6" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H147" s="6"/>
       <c r="I147" s="1" t="str">
         <f>VLOOKUP(B147,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>汪洞辉</v>
+        <v>左明亮</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="4" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C148" s="4">
         <f>VLOOKUP(B148,[1]底薪计算!D:I,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="5">
@@ -8767,22 +8754,22 @@
       <c r="H148" s="6"/>
       <c r="I148" s="1" t="str">
         <f>VLOOKUP(B148,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>左明亮</v>
+        <v>张宏波</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C149" s="4">
         <f>VLOOKUP(B149,[1]底薪计算!D:I,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="5">
@@ -8796,22 +8783,22 @@
       <c r="H149" s="6"/>
       <c r="I149" s="1" t="str">
         <f>VLOOKUP(B149,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>张宏波</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>黄清浩</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" hidden="1">
       <c r="A150" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C150" s="4">
         <f>VLOOKUP(B150,[1]底薪计算!D:I,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="5">
@@ -8822,86 +8809,89 @@
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B150,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H150" s="6"/>
+      <c r="H150" s="6" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I150" s="1" t="str">
         <f>VLOOKUP(B150,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>黄清浩</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" hidden="1">
+        <v>王立斌</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C151" s="4">
         <f>VLOOKUP(B151,[1]底薪计算!D:I,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="5">
-        <f t="shared" si="5"/>
+        <f>IF(AND(D151="直销",C151="Y"),1,IF(AND(D151="一体化",E151&lt;&gt;" "),0,IF(AND(D151="一体化",EC3051="Y"),1,0)))</f>
         <v>0</v>
       </c>
       <c r="G151" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B151,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H151" s="6" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H151" s="6"/>
       <c r="I151" s="1" t="str">
         <f>VLOOKUP(B151,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>王立斌</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>黄汝富</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" hidden="1">
       <c r="A152" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C152" s="4">
         <f>VLOOKUP(B152,[1]底薪计算!D:I,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="5">
-        <f>IF(AND(D152="直销",C152="Y"),1,IF(AND(D152="一体化",E152&lt;&gt;" "),0,IF(AND(D152="一体化",EC3052="Y"),1,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G152" s="5" t="e">
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B152,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H152" s="6"/>
+      <c r="H152" s="6" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I152" s="1" t="str">
         <f>VLOOKUP(B152,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>黄汝富</v>
+        <v>陈亚贤</v>
       </c>
     </row>
     <row r="153" spans="1:9" hidden="1">
       <c r="A153" s="4" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C153" s="4">
         <f>VLOOKUP(B153,[1]底薪计算!D:I,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="5">
@@ -8918,22 +8908,22 @@
       </c>
       <c r="I153" s="1" t="str">
         <f>VLOOKUP(B153,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>陈亚贤</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" hidden="1">
+        <v>王翔</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C154" s="4">
         <f>VLOOKUP(B154,[1]底薪计算!D:I,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="5">
@@ -8944,28 +8934,25 @@
         <f>SUMIF('[1]4-5月集团客户明细'!F:F,B154,'[1]4-5月集团客户明细'!N:N)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H154" s="6" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H154" s="6"/>
       <c r="I154" s="1" t="str">
         <f>VLOOKUP(B154,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>王翔</v>
+        <v>吴贤锦</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="4" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C155" s="4">
         <f>VLOOKUP(B155,[1]底薪计算!D:I,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="5">
@@ -8979,50 +8966,18 @@
       <c r="H155" s="6"/>
       <c r="I155" s="1" t="str">
         <f>VLOOKUP(B155,[1]底薪计算!D:D,1,FALSE)</f>
-        <v>吴贤锦</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C156" s="4">
-        <f>VLOOKUP(B156,[1]底薪计算!D:I,6,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E156" s="4"/>
-      <c r="F156" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G156" s="5" t="e">
-        <f>SUMIF('[1]4-5月集团客户明细'!F:F,B156,'[1]4-5月集团客户明细'!N:N)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H156" s="6"/>
-      <c r="I156" s="1" t="str">
-        <f>VLOOKUP(B156,[1]底薪计算!D:D,1,FALSE)</f>
         <v>杜昇华</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I156">
+  <autoFilter ref="A1:I155">
     <filterColumn colId="3">
       <filters>
         <filter val="直销"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
